--- a/output/上网相关系数矩阵.xlsx
+++ b/output/上网相关系数矩阵.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BV74"/>
+  <dimension ref="A1:BS71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -771,32 +771,17 @@
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>终端品牌_华硕</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
           <t>终端品牌_小米科技</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>终端品牌_欧珀</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>终端品牌_步步高</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>终端品牌_苹果</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>终端品牌_金立</t>
         </is>
       </c>
     </row>
@@ -966,13 +951,13 @@
         <v>0.2628342496462223</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.06199980491633291</v>
+        <v>0.03538793566540956</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.001949427826474193</v>
+        <v>0.08137280416788904</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.02046429020002295</v>
+        <v>0.03996686946293188</v>
       </c>
       <c r="BF2" t="n">
         <v>0.007426748281703229</v>
@@ -1002,28 +987,19 @@
         <v>0.005638896434726434</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.0007935066234585211</v>
+        <v>0.02694417884472192</v>
       </c>
       <c r="BP2" t="n">
         <v>0.1410887499502735</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.005007333321141769</v>
+        <v>0.030937791793738</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.030937791793738</v>
+        <v>0.01594161256507011</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.03245092805397139</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>0.01594161256507011</v>
-      </c>
-      <c r="BU2" t="n">
         <v>0.183011911085109</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>0.009705622319823252</v>
       </c>
     </row>
     <row r="3">
@@ -1192,13 +1168,13 @@
         <v>0.1557348872681281</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.03634610570609132</v>
+        <v>0.01310984183389074</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.002354894569598628</v>
+        <v>0.04824277061924104</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.009642045440987077</v>
+        <v>0.01517228203192017</v>
       </c>
       <c r="BF3" t="n">
         <v>0.0002277664624470155</v>
@@ -1228,28 +1204,19 @@
         <v>0.004186078829737451</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.01121206594541877</v>
+        <v>0.02127614701843885</v>
       </c>
       <c r="BP3" t="n">
         <v>0.08690248074656355</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.004061271093781305</v>
+        <v>0.03769667565306364</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.03769667565306364</v>
+        <v>0.005396370435454332</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.03400615016342053</v>
-      </c>
-      <c r="BT3" t="n">
-        <v>0.005396370435454332</v>
-      </c>
-      <c r="BU3" t="n">
         <v>0.125354404853577</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>0.01514820136446366</v>
       </c>
     </row>
     <row r="4">
@@ -1418,13 +1385,13 @@
         <v>0.1980561458724811</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.01919621966967349</v>
+        <v>0.02381257249617686</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.01487215240543682</v>
+        <v>0.02691033675391013</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.004203510476926711</v>
+        <v>0.02298901725774528</v>
       </c>
       <c r="BF4" t="n">
         <v>0.0101640899768692</v>
@@ -1454,28 +1421,19 @@
         <v>0.01752169252923449</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.02274944037626932</v>
+        <v>0.03635509986050962</v>
       </c>
       <c r="BP4" t="n">
         <v>0.1048849571428671</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.009446513847016415</v>
+        <v>0.02166688208229002</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.02166688208229002</v>
+        <v>0.05125111061441779</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.0576084129449892</v>
-      </c>
-      <c r="BT4" t="n">
-        <v>0.05125111061441779</v>
-      </c>
-      <c r="BU4" t="n">
         <v>0.1645716399254414</v>
-      </c>
-      <c r="BV4" t="n">
-        <v>0.006679218153385943</v>
       </c>
     </row>
     <row r="5">
@@ -1644,13 +1602,13 @@
         <v>0.1264827168648468</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.003349851472320916</v>
+        <v>0.01184826058822959</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.02684805346633447</v>
+        <v>0.02703100065449614</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.001152901805283002</v>
+        <v>0.0202973028710319</v>
       </c>
       <c r="BF5" t="n">
         <v>0.01536510132713615</v>
@@ -1680,28 +1638,19 @@
         <v>0.00689550929103399</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.01427255302820032</v>
+        <v>0.01250402323052536</v>
       </c>
       <c r="BP5" t="n">
         <v>0.04384179749140976</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.003485338446822571</v>
+        <v>0.002491531931282356</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.002491531931282356</v>
+        <v>0.009162920615585834</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.0241572286872788</v>
-      </c>
-      <c r="BT5" t="n">
-        <v>0.009162920615585834</v>
-      </c>
-      <c r="BU5" t="n">
         <v>0.05549321249994619</v>
-      </c>
-      <c r="BV5" t="n">
-        <v>0.002464330884569001</v>
       </c>
     </row>
     <row r="6">
@@ -1870,13 +1819,13 @@
         <v>0.151435172708304</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.02317343264249863</v>
+        <v>0.00554239968897492</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.01445007117418078</v>
+        <v>0.01422533104602497</v>
       </c>
       <c r="BE6" t="n">
-        <v>0.04970215191505289</v>
+        <v>0.03708774072207367</v>
       </c>
       <c r="BF6" t="n">
         <v>0.01024049778089861</v>
@@ -1906,28 +1855,19 @@
         <v>0.00146578303975943</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.01534177382980756</v>
+        <v>0.01425068283109591</v>
       </c>
       <c r="BP6" t="n">
         <v>0.06578448144803653</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0.006576462185643859</v>
+        <v>0.02857011025986241</v>
       </c>
       <c r="BR6" t="n">
-        <v>0.02857011025986241</v>
+        <v>0.02642563428648592</v>
       </c>
       <c r="BS6" t="n">
-        <v>0.02661456950925397</v>
-      </c>
-      <c r="BT6" t="n">
-        <v>0.02642563428648592</v>
-      </c>
-      <c r="BU6" t="n">
         <v>0.1049000854721346</v>
-      </c>
-      <c r="BV6" t="n">
-        <v>0.004649929733526204</v>
       </c>
     </row>
     <row r="7">
@@ -2096,13 +2036,13 @@
         <v>0.1996553339951454</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.04699212229416062</v>
+        <v>0.04740773650629732</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.0007449952331115546</v>
+        <v>0.03376576176932485</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.04765597935776248</v>
+        <v>0.06056118199656295</v>
       </c>
       <c r="BF7" t="n">
         <v>0.009600811572409152</v>
@@ -2132,28 +2072,19 @@
         <v>0.01221560848366703</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.005058459261082206</v>
+        <v>0.06221795248019357</v>
       </c>
       <c r="BP7" t="n">
         <v>0.07898392437450091</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.007237009507445794</v>
+        <v>0.02254548876969302</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.02254548876969302</v>
+        <v>0.06438806607816161</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.07070739462072623</v>
-      </c>
-      <c r="BT7" t="n">
-        <v>0.06438806607816161</v>
-      </c>
-      <c r="BU7" t="n">
         <v>0.1577915924326438</v>
-      </c>
-      <c r="BV7" t="n">
-        <v>0.007869706140813105</v>
       </c>
     </row>
     <row r="8">
@@ -2322,13 +2253,13 @@
         <v>0.0901551045060988</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.03376336196812869</v>
+        <v>0.01619223350901882</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.02760230548973241</v>
+        <v>0.02386847647847477</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.02474708898280938</v>
+        <v>0.00581224917849731</v>
       </c>
       <c r="BF8" t="n">
         <v>0.008872672944363461</v>
@@ -2358,28 +2289,19 @@
         <v>0.000494312535336056</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.01777225766548977</v>
+        <v>0.01501096737916633</v>
       </c>
       <c r="BP8" t="n">
         <v>0.007957510900863437</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0.01761277510841147</v>
+        <v>0.003213647076820958</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.003213647076820958</v>
+        <v>0.04213567601796026</v>
       </c>
       <c r="BS8" t="n">
-        <v>0.02884193181806434</v>
-      </c>
-      <c r="BT8" t="n">
-        <v>0.04213567601796026</v>
-      </c>
-      <c r="BU8" t="n">
         <v>0.02327810663603428</v>
-      </c>
-      <c r="BV8" t="n">
-        <v>0.004796506747966965</v>
       </c>
     </row>
     <row r="9">
@@ -2548,13 +2470,13 @@
         <v>0.1621956904852162</v>
       </c>
       <c r="BC9" t="n">
-        <v>0.06025741850042375</v>
+        <v>0.03621774784585466</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.03262267793877664</v>
+        <v>0.03539839110708158</v>
       </c>
       <c r="BE9" t="n">
-        <v>0.04587855566253819</v>
+        <v>0.0312111194749081</v>
       </c>
       <c r="BF9" t="n">
         <v>0.01611136940434429</v>
@@ -2584,28 +2506,19 @@
         <v>0.009498452862351243</v>
       </c>
       <c r="BO9" t="n">
-        <v>0.002407313332021356</v>
+        <v>0.04679743753302049</v>
       </c>
       <c r="BP9" t="n">
         <v>0.05044538832212357</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0.00699626648907641</v>
+        <v>0.006288747958448298</v>
       </c>
       <c r="BR9" t="n">
-        <v>0.006288747958448298</v>
+        <v>0.03578401340601298</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.05325545433517502</v>
-      </c>
-      <c r="BT9" t="n">
-        <v>0.03578401340601298</v>
-      </c>
-      <c r="BU9" t="n">
         <v>0.09808807345032977</v>
-      </c>
-      <c r="BV9" t="n">
-        <v>0.004946755056578247</v>
       </c>
     </row>
     <row r="10">
@@ -2774,13 +2687,13 @@
         <v>0.06770283486535379</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.02125037391278176</v>
+        <v>0.002251250438037344</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.04699135530215266</v>
+        <v>0.03589425300187516</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.006598236592061788</v>
+        <v>0.004523535170252497</v>
       </c>
       <c r="BF10" t="n">
         <v>0.01169495602962641</v>
@@ -2810,28 +2723,19 @@
         <v>0.01052927965305332</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.008038833863448003</v>
+        <v>0.00277508436338251</v>
       </c>
       <c r="BP10" t="n">
         <v>0.002175929809754219</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0.003976289762648569</v>
+        <v>0.01372566188320423</v>
       </c>
       <c r="BR10" t="n">
-        <v>0.01372566188320423</v>
+        <v>0.01658161494459093</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.002590359201054012</v>
-      </c>
-      <c r="BT10" t="n">
-        <v>0.01658161494459093</v>
-      </c>
-      <c r="BU10" t="n">
         <v>0.01290258331948692</v>
-      </c>
-      <c r="BV10" t="n">
-        <v>0.002811461158678472</v>
       </c>
     </row>
     <row r="11">
@@ -3000,13 +2904,13 @@
         <v>0.2226124745651602</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.02582096292746271</v>
+        <v>0.03362428255421247</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.02789805489398177</v>
+        <v>0.0632674410674896</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.02952075924285805</v>
+        <v>0.05343803384792673</v>
       </c>
       <c r="BF11" t="n">
         <v>0.01508334738454416</v>
@@ -3036,28 +2940,19 @@
         <v>0.005400706435610562</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.01830406490342062</v>
+        <v>0.06297723202221908</v>
       </c>
       <c r="BP11" t="n">
         <v>0.1214987978247699</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.002039529238333177</v>
+        <v>0.02733991077693727</v>
       </c>
       <c r="BR11" t="n">
-        <v>0.02733991077693727</v>
+        <v>0.04260272766161888</v>
       </c>
       <c r="BS11" t="n">
-        <v>0.06210508723020145</v>
-      </c>
-      <c r="BT11" t="n">
-        <v>0.04260272766161888</v>
-      </c>
-      <c r="BU11" t="n">
         <v>0.1932682278971173</v>
-      </c>
-      <c r="BV11" t="n">
-        <v>0.01058083181045089</v>
       </c>
     </row>
     <row r="12">
@@ -3226,13 +3121,13 @@
         <v>0.2262442921709336</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.0007821672734841604</v>
+        <v>0.01539882535732136</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.0108198699749711</v>
+        <v>0.03626985989850104</v>
       </c>
       <c r="BE12" t="n">
-        <v>0.05560779961358914</v>
+        <v>0.05503425684792277</v>
       </c>
       <c r="BF12" t="n">
         <v>0.01938889852691068</v>
@@ -3262,28 +3157,19 @@
         <v>0.0162582932980724</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.002175358462702495</v>
+        <v>0.04873882991256713</v>
       </c>
       <c r="BP12" t="n">
         <v>0.1250215716061014</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0.0113484303704511</v>
+        <v>0.004517277913997005</v>
       </c>
       <c r="BR12" t="n">
-        <v>0.004517277913997005</v>
+        <v>0.04623434395680901</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.05818467356806405</v>
-      </c>
-      <c r="BT12" t="n">
-        <v>0.04623434395680901</v>
-      </c>
-      <c r="BU12" t="n">
         <v>0.1767959020004744</v>
-      </c>
-      <c r="BV12" t="n">
-        <v>0.008023980419686098</v>
       </c>
     </row>
     <row r="13">
@@ -3452,13 +3338,13 @@
         <v>0.2058665935345531</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.0382825631125187</v>
+        <v>0.02675910458022675</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.05089962740885088</v>
+        <v>0.02295774218201443</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.03495500295232348</v>
+        <v>0.03627024806821739</v>
       </c>
       <c r="BF13" t="n">
         <v>0.002609294471581234</v>
@@ -3488,28 +3374,19 @@
         <v>0.009386214880518377</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.009573287701781038</v>
+        <v>0.02422269974680242</v>
       </c>
       <c r="BP13" t="n">
         <v>0.07332012234822274</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.003878780235401664</v>
+        <v>0.0002411140340033412</v>
       </c>
       <c r="BR13" t="n">
-        <v>0.0002411140340033412</v>
+        <v>0.02404640433580265</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.03637872994126289</v>
-      </c>
-      <c r="BT13" t="n">
-        <v>0.02404640433580265</v>
-      </c>
-      <c r="BU13" t="n">
         <v>0.09775906225512969</v>
-      </c>
-      <c r="BV13" t="n">
-        <v>0.01498963174462493</v>
       </c>
     </row>
     <row r="14">
@@ -3678,13 +3555,13 @@
         <v>0.3865948432648292</v>
       </c>
       <c r="BC14" t="n">
-        <v>0.01749284737019156</v>
+        <v>0.01031833311555533</v>
       </c>
       <c r="BD14" t="n">
-        <v>0.027821219252182</v>
+        <v>0.0298165978500196</v>
       </c>
       <c r="BE14" t="n">
-        <v>0.002420219845552686</v>
+        <v>0.02147065808366279</v>
       </c>
       <c r="BF14" t="n">
         <v>0.01624185961790052</v>
@@ -3714,28 +3591,19 @@
         <v>0.0177379672980519</v>
       </c>
       <c r="BO14" t="n">
-        <v>2.247026005137387e-05</v>
+        <v>0.03121226760319746</v>
       </c>
       <c r="BP14" t="n">
         <v>0.05400681839521772</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0.01182997981692861</v>
+        <v>0.02922725742107555</v>
       </c>
       <c r="BR14" t="n">
-        <v>0.02922725742107555</v>
+        <v>0.02054924030913475</v>
       </c>
       <c r="BS14" t="n">
-        <v>0.03582336697720509</v>
-      </c>
-      <c r="BT14" t="n">
-        <v>0.02054924030913475</v>
-      </c>
-      <c r="BU14" t="n">
         <v>0.1021301219368411</v>
-      </c>
-      <c r="BV14" t="n">
-        <v>0.008364463041820971</v>
       </c>
     </row>
     <row r="15">
@@ -3904,13 +3772,13 @@
         <v>0.006059637257459343</v>
       </c>
       <c r="BC15" t="n">
-        <v>0.01069451999947767</v>
+        <v>0.001755670117268482</v>
       </c>
       <c r="BD15" t="n">
-        <v>0.03131528074310241</v>
+        <v>0.0312635335520239</v>
       </c>
       <c r="BE15" t="n">
-        <v>0.008777454054326086</v>
+        <v>0.005599263084569647</v>
       </c>
       <c r="BF15" t="n">
         <v>0.005034655099726558</v>
@@ -3940,28 +3808,19 @@
         <v>0.006353463986638751</v>
       </c>
       <c r="BO15" t="n">
-        <v>0.02239034555274378</v>
+        <v>0.003748938489814412</v>
       </c>
       <c r="BP15" t="n">
         <v>0.005467474202698994</v>
       </c>
       <c r="BQ15" t="n">
-        <v>0.002399329739532751</v>
+        <v>0.01218610779856453</v>
       </c>
       <c r="BR15" t="n">
-        <v>0.01218610779856453</v>
+        <v>0.02495741289089713</v>
       </c>
       <c r="BS15" t="n">
-        <v>0.01098154429194383</v>
-      </c>
-      <c r="BT15" t="n">
-        <v>0.02495741289089713</v>
-      </c>
-      <c r="BU15" t="n">
         <v>0.02324967940961941</v>
-      </c>
-      <c r="BV15" t="n">
-        <v>0.001696461468407993</v>
       </c>
     </row>
     <row r="16">
@@ -4130,13 +3989,13 @@
         <v>0.2954764242180059</v>
       </c>
       <c r="BC16" t="n">
-        <v>0.02004084431436316</v>
+        <v>0.0005404465640469524</v>
       </c>
       <c r="BD16" t="n">
-        <v>0.02186917146710192</v>
+        <v>0.02492375556597328</v>
       </c>
       <c r="BE16" t="n">
-        <v>0.02104643628293237</v>
+        <v>0.02410127475648396</v>
       </c>
       <c r="BF16" t="n">
         <v>0.006814000219407747</v>
@@ -4166,28 +4025,19 @@
         <v>0.005535952485782249</v>
       </c>
       <c r="BO16" t="n">
-        <v>0.01311819234427029</v>
+        <v>0.01118130201135061</v>
       </c>
       <c r="BP16" t="n">
         <v>0.04620852975489662</v>
       </c>
       <c r="BQ16" t="n">
-        <v>0.008218385807770571</v>
+        <v>0.02281265746459963</v>
       </c>
       <c r="BR16" t="n">
-        <v>0.02281265746459963</v>
+        <v>0.001078779478222983</v>
       </c>
       <c r="BS16" t="n">
-        <v>0.003493650743823932</v>
-      </c>
-      <c r="BT16" t="n">
-        <v>0.001078779478222983</v>
-      </c>
-      <c r="BU16" t="n">
         <v>0.06833701467111991</v>
-      </c>
-      <c r="BV16" t="n">
-        <v>0.005810862352795658</v>
       </c>
     </row>
     <row r="17">
@@ -4356,13 +4206,13 @@
         <v>0.2026575650064693</v>
       </c>
       <c r="BC17" t="n">
-        <v>0.05650519307565108</v>
+        <v>0.02278542499906743</v>
       </c>
       <c r="BD17" t="n">
-        <v>0.003403640683078676</v>
+        <v>0.02506699296282477</v>
       </c>
       <c r="BE17" t="n">
-        <v>0.001901562611787774</v>
+        <v>0.01058336492535455</v>
       </c>
       <c r="BF17" t="n">
         <v>0.006227474946883976</v>
@@ -4392,28 +4242,19 @@
         <v>0.01241907023993696</v>
       </c>
       <c r="BO17" t="n">
-        <v>0.00653601887652923</v>
+        <v>0.01180471576112824</v>
       </c>
       <c r="BP17" t="n">
         <v>0.08152179879814096</v>
       </c>
       <c r="BQ17" t="n">
-        <v>0.004689952540329267</v>
+        <v>0.001427858731465205</v>
       </c>
       <c r="BR17" t="n">
-        <v>0.001427858731465205</v>
+        <v>0.01448610305389271</v>
       </c>
       <c r="BS17" t="n">
-        <v>0.01794810599515837</v>
-      </c>
-      <c r="BT17" t="n">
-        <v>0.01448610305389271</v>
-      </c>
-      <c r="BU17" t="n">
         <v>0.07963679167250763</v>
-      </c>
-      <c r="BV17" t="n">
-        <v>0.003316060999135622</v>
       </c>
     </row>
     <row r="18">
@@ -4582,13 +4423,13 @@
         <v>0.4560677969815528</v>
       </c>
       <c r="BC18" t="n">
-        <v>0.008364670167640115</v>
+        <v>0.01751584984954208</v>
       </c>
       <c r="BD18" t="n">
-        <v>0.02749231260548032</v>
+        <v>0.0325795545855429</v>
       </c>
       <c r="BE18" t="n">
-        <v>0.02252815331785482</v>
+        <v>0.0343629750456581</v>
       </c>
       <c r="BF18" t="n">
         <v>0.01634251864896352</v>
@@ -4618,28 +4459,19 @@
         <v>0.0120101437135101</v>
       </c>
       <c r="BO18" t="n">
-        <v>0.001391955133745369</v>
+        <v>0.03337467752771352</v>
       </c>
       <c r="BP18" t="n">
         <v>0.06075772983226104</v>
       </c>
       <c r="BQ18" t="n">
-        <v>0.0100279151990566</v>
+        <v>0.02714442318061444</v>
       </c>
       <c r="BR18" t="n">
-        <v>0.02714442318061444</v>
+        <v>0.03229514290538628</v>
       </c>
       <c r="BS18" t="n">
-        <v>0.0395248193985496</v>
-      </c>
-      <c r="BT18" t="n">
-        <v>0.03229514290538628</v>
-      </c>
-      <c r="BU18" t="n">
         <v>0.1136968033186054</v>
-      </c>
-      <c r="BV18" t="n">
-        <v>0.007090301705248454</v>
       </c>
     </row>
     <row r="19">
@@ -4808,13 +4640,13 @@
         <v>0.2982461924681147</v>
       </c>
       <c r="BC19" t="n">
-        <v>0.01666748313612651</v>
+        <v>0.004133752945033797</v>
       </c>
       <c r="BD19" t="n">
-        <v>0.006591410567332703</v>
+        <v>0.03244081135523689</v>
       </c>
       <c r="BE19" t="n">
-        <v>0.0003328336500071824</v>
+        <v>0.01271850974845222</v>
       </c>
       <c r="BF19" t="n">
         <v>0.004657167260049225</v>
@@ -4844,28 +4676,19 @@
         <v>0.01799558127624709</v>
       </c>
       <c r="BO19" t="n">
-        <v>0.000781157039560942</v>
+        <v>0.003656743477193577</v>
       </c>
       <c r="BP19" t="n">
         <v>0.02524526872927483</v>
       </c>
       <c r="BQ19" t="n">
-        <v>0.006795872838357126</v>
+        <v>0.0254358858679703</v>
       </c>
       <c r="BR19" t="n">
-        <v>0.0254358858679703</v>
+        <v>0.02092465143170291</v>
       </c>
       <c r="BS19" t="n">
-        <v>0.004120808108931599</v>
-      </c>
-      <c r="BT19" t="n">
-        <v>0.02092465143170291</v>
-      </c>
-      <c r="BU19" t="n">
         <v>0.05619709750575893</v>
-      </c>
-      <c r="BV19" t="n">
-        <v>0.004805065441617244</v>
       </c>
     </row>
     <row r="20">
@@ -5034,13 +4857,13 @@
         <v>0.3048177064217745</v>
       </c>
       <c r="BC20" t="n">
-        <v>0.004648548378302506</v>
+        <v>0.003714629183353675</v>
       </c>
       <c r="BD20" t="n">
-        <v>0.01751246543066018</v>
+        <v>0.03430074453276402</v>
       </c>
       <c r="BE20" t="n">
-        <v>0.02575401594073479</v>
+        <v>0.0231952386070544</v>
       </c>
       <c r="BF20" t="n">
         <v>0.02222825869169523</v>
@@ -5070,28 +4893,19 @@
         <v>0.007280333324765239</v>
       </c>
       <c r="BO20" t="n">
-        <v>0.001929523594528131</v>
+        <v>0.02482809195538108</v>
       </c>
       <c r="BP20" t="n">
         <v>0.06116183059720776</v>
       </c>
       <c r="BQ20" t="n">
-        <v>0.00639095068523973</v>
+        <v>0.01531069188196587</v>
       </c>
       <c r="BR20" t="n">
-        <v>0.01531069188196587</v>
+        <v>0.02395664414030698</v>
       </c>
       <c r="BS20" t="n">
-        <v>0.03012846000720727</v>
-      </c>
-      <c r="BT20" t="n">
-        <v>0.02395664414030698</v>
-      </c>
-      <c r="BU20" t="n">
         <v>0.096680166839168</v>
-      </c>
-      <c r="BV20" t="n">
-        <v>0.004518762638317588</v>
       </c>
     </row>
     <row r="21">
@@ -5260,13 +5074,13 @@
         <v>0.08370151601601736</v>
       </c>
       <c r="BC21" t="n">
-        <v>0.01254410841537731</v>
+        <v>0.003208185098641405</v>
       </c>
       <c r="BD21" t="n">
-        <v>0.0293413891284154</v>
+        <v>0.02583051727618777</v>
       </c>
       <c r="BE21" t="n">
-        <v>0.02183589933765741</v>
+        <v>0.01686676244011548</v>
       </c>
       <c r="BF21" t="n">
         <v>0.006090942121492777</v>
@@ -5296,28 +5110,19 @@
         <v>0.004388137606081649</v>
       </c>
       <c r="BO21" t="n">
-        <v>0.00593318888538361</v>
+        <v>0.007042480901852287</v>
       </c>
       <c r="BP21" t="n">
         <v>0.0164634053307231</v>
       </c>
       <c r="BQ21" t="n">
-        <v>0.001657141534377988</v>
+        <v>0.001415472483223179</v>
       </c>
       <c r="BR21" t="n">
-        <v>0.001415472483223179</v>
+        <v>0.006389169800654741</v>
       </c>
       <c r="BS21" t="n">
-        <v>0.004171648368298958</v>
-      </c>
-      <c r="BT21" t="n">
-        <v>0.006389169800654741</v>
-      </c>
-      <c r="BU21" t="n">
         <v>0.01638052695209808</v>
-      </c>
-      <c r="BV21" t="n">
-        <v>0.001171692541650498</v>
       </c>
     </row>
     <row r="22">
@@ -5486,13 +5291,13 @@
         <v>0.07845295328527223</v>
       </c>
       <c r="BC22" t="n">
-        <v>0.03433792070995886</v>
+        <v>0.008286118138351232</v>
       </c>
       <c r="BD22" t="n">
-        <v>0.004148034582192811</v>
+        <v>0.01980825794727442</v>
       </c>
       <c r="BE22" t="n">
-        <v>0.00479650325711484</v>
+        <v>0.01010199120746887</v>
       </c>
       <c r="BF22" t="n">
         <v>0.01399131211466506</v>
@@ -5522,28 +5327,19 @@
         <v>0.002098745751758801</v>
       </c>
       <c r="BO22" t="n">
-        <v>0.008737101599949525</v>
+        <v>0.01651089256970986</v>
       </c>
       <c r="BP22" t="n">
         <v>0.04201834388791923</v>
       </c>
       <c r="BQ22" t="n">
-        <v>0.004274696223793741</v>
+        <v>0.02812367200213009</v>
       </c>
       <c r="BR22" t="n">
-        <v>0.02812367200213009</v>
+        <v>0.005239790505145785</v>
       </c>
       <c r="BS22" t="n">
-        <v>0.01324248835004835</v>
-      </c>
-      <c r="BT22" t="n">
-        <v>0.005239790505145785</v>
-      </c>
-      <c r="BU22" t="n">
         <v>0.07217893593510771</v>
-      </c>
-      <c r="BV22" t="n">
-        <v>0.003022451359364834</v>
       </c>
     </row>
     <row r="23">
@@ -5712,13 +5508,13 @@
         <v>0.06824472800816619</v>
       </c>
       <c r="BC23" t="n">
-        <v>0.01676420164973229</v>
+        <v>0.004398359618991063</v>
       </c>
       <c r="BD23" t="n">
-        <v>0.01374299253796579</v>
+        <v>0.01638839305122153</v>
       </c>
       <c r="BE23" t="n">
-        <v>0.004296637759624531</v>
+        <v>0.00897370388006845</v>
       </c>
       <c r="BF23" t="n">
         <v>0.00590732227950514</v>
@@ -5748,28 +5544,19 @@
         <v>0.006722207274960198</v>
       </c>
       <c r="BO23" t="n">
-        <v>0.0002185357207990259</v>
+        <v>0.007962195588649704</v>
       </c>
       <c r="BP23" t="n">
         <v>0.04564337838229495</v>
       </c>
       <c r="BQ23" t="n">
-        <v>0.003510585431538764</v>
+        <v>0.02911975972867766</v>
       </c>
       <c r="BR23" t="n">
-        <v>0.02911975972867766</v>
+        <v>0.01587320572869308</v>
       </c>
       <c r="BS23" t="n">
-        <v>0.008931505248394664</v>
-      </c>
-      <c r="BT23" t="n">
-        <v>0.01587320572869308</v>
-      </c>
-      <c r="BU23" t="n">
         <v>0.07641844911653536</v>
-      </c>
-      <c r="BV23" t="n">
-        <v>0.002482181926907536</v>
       </c>
     </row>
     <row r="24">
@@ -5938,13 +5725,13 @@
         <v>0.05630733944954124</v>
       </c>
       <c r="BC24" t="n">
-        <v>0.006597953284682317</v>
+        <v>0.004573781675797101</v>
       </c>
       <c r="BD24" t="n">
-        <v>0.02332917746260874</v>
+        <v>0.006241020974874826</v>
       </c>
       <c r="BE24" t="n">
-        <v>0.007550969108161149</v>
+        <v>0.008582319227593688</v>
       </c>
       <c r="BF24" t="n">
         <v>0.01182929552024289</v>
@@ -5974,28 +5761,19 @@
         <v>0.0005406456058125442</v>
       </c>
       <c r="BO24" t="n">
-        <v>0.002290840599028838</v>
+        <v>0.01056570503537146</v>
       </c>
       <c r="BP24" t="n">
         <v>0.03353865236915065</v>
       </c>
       <c r="BQ24" t="n">
-        <v>0.004573409193151582</v>
+        <v>0.02883706434906223</v>
       </c>
       <c r="BR24" t="n">
-        <v>0.02883706434906223</v>
+        <v>0.006108896234018621</v>
       </c>
       <c r="BS24" t="n">
-        <v>0.01463119809223094</v>
-      </c>
-      <c r="BT24" t="n">
-        <v>0.006108896234018621</v>
-      </c>
-      <c r="BU24" t="n">
         <v>0.04394138918906285</v>
-      </c>
-      <c r="BV24" t="n">
-        <v>0.003233658278647217</v>
       </c>
     </row>
     <row r="25">
@@ -6164,13 +5942,13 @@
         <v>0.08064108741960367</v>
       </c>
       <c r="BC25" t="n">
-        <v>0.03071726198995382</v>
+        <v>0.0135513982892309</v>
       </c>
       <c r="BD25" t="n">
-        <v>0.01816530611318624</v>
+        <v>0.004107405306234778</v>
       </c>
       <c r="BE25" t="n">
-        <v>0.005215497748283363</v>
+        <v>0.009949895965139902</v>
       </c>
       <c r="BF25" t="n">
         <v>0.01117863997080696</v>
@@ -6200,28 +5978,19 @@
         <v>0.005768940105954265</v>
       </c>
       <c r="BO25" t="n">
-        <v>0.00157027761337508</v>
+        <v>0.004540991002438451</v>
       </c>
       <c r="BP25" t="n">
         <v>0.04023776054137401</v>
       </c>
       <c r="BQ25" t="n">
-        <v>0.002178589442059953</v>
+        <v>0.009663183140694228</v>
       </c>
       <c r="BR25" t="n">
-        <v>0.009663183140694228</v>
+        <v>0.005633033928398308</v>
       </c>
       <c r="BS25" t="n">
-        <v>0.006222711069373155</v>
-      </c>
-      <c r="BT25" t="n">
-        <v>0.005633033928398308</v>
-      </c>
-      <c r="BU25" t="n">
         <v>0.0464630062805891</v>
-      </c>
-      <c r="BV25" t="n">
-        <v>0.001540385626468716</v>
       </c>
     </row>
     <row r="26">
@@ -6390,13 +6159,13 @@
         <v>0.04204608268146277</v>
       </c>
       <c r="BC26" t="n">
-        <v>0.03071726198995382</v>
+        <v>0.01209127583656689</v>
       </c>
       <c r="BD26" t="n">
-        <v>0.02394611697525887</v>
+        <v>0.002583573832380344</v>
       </c>
       <c r="BE26" t="n">
-        <v>0.001983744455209475</v>
+        <v>0.00230052029555238</v>
       </c>
       <c r="BF26" t="n">
         <v>0.004496045124551454</v>
@@ -6426,28 +6195,19 @@
         <v>0.005454923643847557</v>
       </c>
       <c r="BO26" t="n">
-        <v>0.01160453494534531</v>
+        <v>0.01254337510719021</v>
       </c>
       <c r="BP26" t="n">
         <v>0.002245756511762621</v>
       </c>
       <c r="BQ26" t="n">
-        <v>0.002060003889703015</v>
+        <v>0.01530484457469379</v>
       </c>
       <c r="BR26" t="n">
-        <v>0.01530484457469379</v>
+        <v>0.005538114292731515</v>
       </c>
       <c r="BS26" t="n">
-        <v>0.007286723563410079</v>
-      </c>
-      <c r="BT26" t="n">
-        <v>0.005538114292731515</v>
-      </c>
-      <c r="BU26" t="n">
         <v>0.009005887342624763</v>
-      </c>
-      <c r="BV26" t="n">
-        <v>0.001456538951720876</v>
       </c>
     </row>
     <row r="27">
@@ -6616,13 +6376,13 @@
         <v>0.04412545555268968</v>
       </c>
       <c r="BC27" t="n">
-        <v>0.02938999938981738</v>
+        <v>0.006069639584929231</v>
       </c>
       <c r="BD27" t="n">
-        <v>0.03691219688319221</v>
+        <v>0.008973203817629284</v>
       </c>
       <c r="BE27" t="n">
-        <v>0.02594023508559534</v>
+        <v>0.02040862920977369</v>
       </c>
       <c r="BF27" t="n">
         <v>0.008363539131331756</v>
@@ -6652,28 +6412,19 @@
         <v>0.002763037223308441</v>
       </c>
       <c r="BO27" t="n">
-        <v>0.01020211026354633</v>
+        <v>0.006325649669906301</v>
       </c>
       <c r="BP27" t="n">
         <v>0.02609485531086465</v>
       </c>
       <c r="BQ27" t="n">
-        <v>0.005277497668991685</v>
+        <v>0.007344132219107537</v>
       </c>
       <c r="BR27" t="n">
-        <v>0.007344132219107537</v>
+        <v>0.006433935749880628</v>
       </c>
       <c r="BS27" t="n">
-        <v>2.198808724189948e-05</v>
-      </c>
-      <c r="BT27" t="n">
-        <v>0.006433935749880628</v>
-      </c>
-      <c r="BU27" t="n">
         <v>0.03756733941088222</v>
-      </c>
-      <c r="BV27" t="n">
-        <v>0.003731488547631195</v>
       </c>
     </row>
     <row r="28">
@@ -6842,13 +6593,13 @@
         <v>0.04250451426894832</v>
       </c>
       <c r="BC28" t="n">
-        <v>0.04021211588347324</v>
+        <v>0.01940971016630304</v>
       </c>
       <c r="BD28" t="n">
-        <v>6.040556255977794e-05</v>
+        <v>0.01100169519069185</v>
       </c>
       <c r="BE28" t="n">
-        <v>0.008863401255175716</v>
+        <v>0.003561049246232531</v>
       </c>
       <c r="BF28" t="n">
         <v>0.002470821970923993</v>
@@ -6878,28 +6629,19 @@
         <v>0.00876682378764721</v>
       </c>
       <c r="BO28" t="n">
-        <v>0.006360798293412957</v>
+        <v>0.01521948316558621</v>
       </c>
       <c r="BP28" t="n">
         <v>0.008500877205696348</v>
       </c>
       <c r="BQ28" t="n">
-        <v>0.003310713821496485</v>
+        <v>0.009735563735211351</v>
       </c>
       <c r="BR28" t="n">
-        <v>0.009735563735211351</v>
+        <v>0.01467184781417357</v>
       </c>
       <c r="BS28" t="n">
-        <v>0.02278425061118174</v>
-      </c>
-      <c r="BT28" t="n">
-        <v>0.01467184781417357</v>
-      </c>
-      <c r="BU28" t="n">
         <v>0.02984691399419819</v>
-      </c>
-      <c r="BV28" t="n">
-        <v>0.002340861424152702</v>
       </c>
     </row>
     <row r="29">
@@ -7068,13 +6810,13 @@
         <v>0.03594023454650626</v>
       </c>
       <c r="BC29" t="n">
-        <v>0.02912328940483577</v>
+        <v>0.009072168492878513</v>
       </c>
       <c r="BD29" t="n">
-        <v>0.002272430255547714</v>
+        <v>0.01066228532137977</v>
       </c>
       <c r="BE29" t="n">
-        <v>0.002423646865470857</v>
+        <v>0.0006630759691933323</v>
       </c>
       <c r="BF29" t="n">
         <v>0.008457248447805411</v>
@@ -7104,28 +6846,19 @@
         <v>0.004453791196137801</v>
       </c>
       <c r="BO29" t="n">
-        <v>0.01248428595444902</v>
+        <v>0.01896962297504982</v>
       </c>
       <c r="BP29" t="n">
         <v>0.01227749105262424</v>
       </c>
       <c r="BQ29" t="n">
-        <v>0.001681935034657529</v>
+        <v>0.01318365448121537</v>
       </c>
       <c r="BR29" t="n">
-        <v>0.01318365448121537</v>
+        <v>0.006659203566839045</v>
       </c>
       <c r="BS29" t="n">
-        <v>0.01429265227950389</v>
-      </c>
-      <c r="BT29" t="n">
-        <v>0.006659203566839045</v>
-      </c>
-      <c r="BU29" t="n">
         <v>0.003959393061202442</v>
-      </c>
-      <c r="BV29" t="n">
-        <v>0.00118922294491195</v>
       </c>
     </row>
     <row r="30">
@@ -7294,13 +7027,13 @@
         <v>0.03572188482374292</v>
       </c>
       <c r="BC30" t="n">
-        <v>0.02578926467927264</v>
+        <v>0.009058201705849808</v>
       </c>
       <c r="BD30" t="n">
-        <v>0.02868528770858126</v>
+        <v>0.003481838906324554</v>
       </c>
       <c r="BE30" t="n">
-        <v>0.005822635744202651</v>
+        <v>0.004165559995683312</v>
       </c>
       <c r="BF30" t="n">
         <v>0.01150370668468784</v>
@@ -7330,28 +7063,19 @@
         <v>0.005794387757509718</v>
       </c>
       <c r="BO30" t="n">
-        <v>0.001387572442156842</v>
+        <v>0.007574515900398239</v>
       </c>
       <c r="BP30" t="n">
         <v>0.00367047000532294</v>
       </c>
       <c r="BQ30" t="n">
-        <v>0.002188199523632263</v>
+        <v>0.02003794260159598</v>
       </c>
       <c r="BR30" t="n">
-        <v>0.02003794260159598</v>
+        <v>0.00886940081079658</v>
       </c>
       <c r="BS30" t="n">
-        <v>0.008314102110857645</v>
-      </c>
-      <c r="BT30" t="n">
-        <v>0.00886940081079658</v>
-      </c>
-      <c r="BU30" t="n">
         <v>0.01088395396327835</v>
-      </c>
-      <c r="BV30" t="n">
-        <v>0.001547180496230493</v>
       </c>
     </row>
     <row r="31">
@@ -7520,13 +7244,13 @@
         <v>0.02035343329761178</v>
       </c>
       <c r="BC31" t="n">
-        <v>0.01997430351550693</v>
+        <v>0.001522205670558471</v>
       </c>
       <c r="BD31" t="n">
-        <v>0.006165350628725873</v>
+        <v>0.001345976477481956</v>
       </c>
       <c r="BE31" t="n">
-        <v>0.009847975380861173</v>
+        <v>0.004459192441726324</v>
       </c>
       <c r="BF31" t="n">
         <v>0.002295055992883917</v>
@@ -7556,28 +7280,19 @@
         <v>0.02006994155930663</v>
       </c>
       <c r="BO31" t="n">
-        <v>0.002508458325705782</v>
+        <v>0.01996424195890326</v>
       </c>
       <c r="BP31" t="n">
         <v>0.003987739343139157</v>
       </c>
       <c r="BQ31" t="n">
-        <v>0.002129931491748838</v>
+        <v>0.006000530214021119</v>
       </c>
       <c r="BR31" t="n">
-        <v>0.006000530214021119</v>
+        <v>0.00737686168898009</v>
       </c>
       <c r="BS31" t="n">
-        <v>0.02521055302607648</v>
-      </c>
-      <c r="BT31" t="n">
-        <v>0.00737686168898009</v>
-      </c>
-      <c r="BU31" t="n">
         <v>0.004772718054871352</v>
-      </c>
-      <c r="BV31" t="n">
-        <v>0.001505981710877442</v>
       </c>
     </row>
     <row r="32">
@@ -7746,13 +7461,13 @@
         <v>0.481090738769375</v>
       </c>
       <c r="BC32" t="n">
-        <v>0.002558689115929799</v>
+        <v>0.0117021941507468</v>
       </c>
       <c r="BD32" t="n">
-        <v>0.01358176749184656</v>
+        <v>0.02783439992395563</v>
       </c>
       <c r="BE32" t="n">
-        <v>0.01513457500036528</v>
+        <v>0.02504273190828009</v>
       </c>
       <c r="BF32" t="n">
         <v>0.009816267433537426</v>
@@ -7782,28 +7497,19 @@
         <v>0.009833174221895436</v>
       </c>
       <c r="BO32" t="n">
-        <v>0.0006794754680176185</v>
+        <v>0.01664490141711619</v>
       </c>
       <c r="BP32" t="n">
         <v>0.04692914153418751</v>
       </c>
       <c r="BQ32" t="n">
-        <v>0.00371341167498807</v>
+        <v>0.01001754532533892</v>
       </c>
       <c r="BR32" t="n">
-        <v>0.01001754532533892</v>
+        <v>0.0005750911476681904</v>
       </c>
       <c r="BS32" t="n">
-        <v>0.01984588601073783</v>
-      </c>
-      <c r="BT32" t="n">
-        <v>0.0005750911476681904</v>
-      </c>
-      <c r="BU32" t="n">
         <v>0.06338547618933214</v>
-      </c>
-      <c r="BV32" t="n">
-        <v>0.002625591522147536</v>
       </c>
     </row>
     <row r="33">
@@ -7972,13 +7678,13 @@
         <v>0.01653974641551382</v>
       </c>
       <c r="BC33" t="n">
-        <v>0.01069409782525327</v>
+        <v>0.0007848677018753164</v>
       </c>
       <c r="BD33" t="n">
-        <v>0.02969945464655577</v>
+        <v>0.000510106931565888</v>
       </c>
       <c r="BE33" t="n">
-        <v>0.0009714218229171539</v>
+        <v>0.0007463932486755861</v>
       </c>
       <c r="BF33" t="n">
         <v>0.01283883790628017</v>
@@ -8008,28 +7714,19 @@
         <v>0.006469076149543147</v>
       </c>
       <c r="BO33" t="n">
-        <v>0.00318498344703115</v>
+        <v>0.01260568644039302</v>
       </c>
       <c r="BP33" t="n">
         <v>0.03837243388702353</v>
       </c>
       <c r="BQ33" t="n">
-        <v>0.002442989655020049</v>
+        <v>0.01091402232899592</v>
       </c>
       <c r="BR33" t="n">
-        <v>0.01091402232899592</v>
+        <v>0.001986298503618116</v>
       </c>
       <c r="BS33" t="n">
-        <v>0.01256400632976446</v>
-      </c>
-      <c r="BT33" t="n">
-        <v>0.001986298503618116</v>
-      </c>
-      <c r="BU33" t="n">
         <v>0.05181407223851221</v>
-      </c>
-      <c r="BV33" t="n">
-        <v>0.001727331491447251</v>
       </c>
     </row>
     <row r="34">
@@ -8198,13 +7895,13 @@
         <v>0.03160227458327287</v>
       </c>
       <c r="BC34" t="n">
-        <v>0.00354312136814932</v>
+        <v>0.006802598099126971</v>
       </c>
       <c r="BD34" t="n">
-        <v>0.03368760145995182</v>
+        <v>0.002672744062249419</v>
       </c>
       <c r="BE34" t="n">
-        <v>0.02261454808493251</v>
+        <v>0.006011466010792331</v>
       </c>
       <c r="BF34" t="n">
         <v>0.01220278118005696</v>
@@ -8234,28 +7931,19 @@
         <v>0.008696552729435467</v>
       </c>
       <c r="BO34" t="n">
-        <v>0.003957717461475703</v>
+        <v>0.01193934188819723</v>
       </c>
       <c r="BP34" t="n">
         <v>0.06097650954932008</v>
       </c>
       <c r="BQ34" t="n">
-        <v>0.003284176575019554</v>
+        <v>0.006453828592257536</v>
       </c>
       <c r="BR34" t="n">
-        <v>0.006453828592257536</v>
+        <v>0.003766937814805588</v>
       </c>
       <c r="BS34" t="n">
-        <v>0.01651789143791571</v>
-      </c>
-      <c r="BT34" t="n">
-        <v>0.003766937814805588</v>
-      </c>
-      <c r="BU34" t="n">
         <v>0.06461436313491022</v>
-      </c>
-      <c r="BV34" t="n">
-        <v>0.002322098093967612</v>
       </c>
     </row>
     <row r="35">
@@ -8424,13 +8112,13 @@
         <v>0.03481656152603239</v>
       </c>
       <c r="BC35" t="n">
-        <v>0.04877196230375212</v>
+        <v>0.009574015707211093</v>
       </c>
       <c r="BD35" t="n">
-        <v>0.01811693183832272</v>
+        <v>0.00453876962313502</v>
       </c>
       <c r="BE35" t="n">
-        <v>0.001443410560827871</v>
+        <v>0.006778784617642059</v>
       </c>
       <c r="BF35" t="n">
         <v>0.007358346529923112</v>
@@ -8460,28 +8148,19 @@
         <v>0.003590567555473627</v>
       </c>
       <c r="BO35" t="n">
-        <v>0.04540401301476382</v>
+        <v>0.0293857398405012</v>
       </c>
       <c r="BP35" t="n">
         <v>0.03628114878803323</v>
       </c>
       <c r="BQ35" t="n">
-        <v>0.00135594622646267</v>
+        <v>0.01155302639708571</v>
       </c>
       <c r="BR35" t="n">
-        <v>0.01155302639708571</v>
+        <v>0.005039846307190524</v>
       </c>
       <c r="BS35" t="n">
-        <v>0.004337927573044693</v>
-      </c>
-      <c r="BT35" t="n">
-        <v>0.005039846307190524</v>
-      </c>
-      <c r="BU35" t="n">
         <v>0.01406135692732767</v>
-      </c>
-      <c r="BV35" t="n">
-        <v>0.0009587304689830188</v>
       </c>
     </row>
     <row r="36">
@@ -8650,13 +8329,13 @@
         <v>0.03193928420815492</v>
       </c>
       <c r="BC36" t="n">
-        <v>0.04400164995755525</v>
+        <v>0.004721877527824012</v>
       </c>
       <c r="BD36" t="n">
-        <v>0.01017627166487385</v>
+        <v>0.00240863891125827</v>
       </c>
       <c r="BE36" t="n">
-        <v>0.005196740161363001</v>
+        <v>0.002681015677358657</v>
       </c>
       <c r="BF36" t="n">
         <v>0.006162843991713853</v>
@@ -8686,28 +8365,19 @@
         <v>0.003025014720294259</v>
       </c>
       <c r="BO36" t="n">
-        <v>0.04436650709718781</v>
+        <v>0.03503246895084553</v>
       </c>
       <c r="BP36" t="n">
         <v>0.03174989370587605</v>
       </c>
       <c r="BQ36" t="n">
-        <v>0.001142370177306405</v>
+        <v>0.005394229889489214</v>
       </c>
       <c r="BR36" t="n">
-        <v>0.005394229889489214</v>
+        <v>0.008027625041338032</v>
       </c>
       <c r="BS36" t="n">
-        <v>0.01173421292179665</v>
-      </c>
-      <c r="BT36" t="n">
-        <v>0.008027625041338032</v>
-      </c>
-      <c r="BU36" t="n">
         <v>0.01213675318226858</v>
-      </c>
-      <c r="BV36" t="n">
-        <v>0.0008077201547279322</v>
       </c>
     </row>
     <row r="37">
@@ -8876,13 +8546,13 @@
         <v>0.03258466927383163</v>
       </c>
       <c r="BC37" t="n">
-        <v>0.0116642807804414</v>
+        <v>0.006681192577890051</v>
       </c>
       <c r="BD37" t="n">
-        <v>0.009391608411140437</v>
+        <v>0.0008513623215477544</v>
       </c>
       <c r="BE37" t="n">
-        <v>0.002626790885397794</v>
+        <v>0.0004737339509099651</v>
       </c>
       <c r="BF37" t="n">
         <v>0.004479631998948038</v>
@@ -8912,28 +8582,19 @@
         <v>0.002202476832648097</v>
       </c>
       <c r="BO37" t="n">
-        <v>0.02994598461212425</v>
+        <v>0.028527591543077</v>
       </c>
       <c r="BP37" t="n">
         <v>0.02387697724721484</v>
       </c>
       <c r="BQ37" t="n">
-        <v>0.0008317459855470431</v>
+        <v>0.001737550975206181</v>
       </c>
       <c r="BR37" t="n">
-        <v>0.001737550975206181</v>
+        <v>0.01236589431637071</v>
       </c>
       <c r="BS37" t="n">
-        <v>0.013734092608795</v>
-      </c>
-      <c r="BT37" t="n">
-        <v>0.01236589431637071</v>
-      </c>
-      <c r="BU37" t="n">
         <v>0.01498914777767022</v>
-      </c>
-      <c r="BV37" t="n">
-        <v>0.0005880913293136506</v>
       </c>
     </row>
     <row r="38">
@@ -9102,13 +8763,13 @@
         <v>0.0408418500306764</v>
       </c>
       <c r="BC38" t="n">
-        <v>0.0116642807804414</v>
+        <v>0.005572856260433127</v>
       </c>
       <c r="BD38" t="n">
-        <v>0.006975149116957727</v>
+        <v>0.002677363593181379</v>
       </c>
       <c r="BE38" t="n">
-        <v>0.007787383834644597</v>
+        <v>0.004274239871454271</v>
       </c>
       <c r="BF38" t="n">
         <v>0.003901497266896131</v>
@@ -9138,28 +8799,19 @@
         <v>0.001925460300804023</v>
       </c>
       <c r="BO38" t="n">
-        <v>0.006785545896499225</v>
+        <v>0.01193807119720998</v>
       </c>
       <c r="BP38" t="n">
         <v>0.02455493139554948</v>
       </c>
       <c r="BQ38" t="n">
-        <v>0.0007271331311114994</v>
+        <v>0.003125098024367758</v>
       </c>
       <c r="BR38" t="n">
-        <v>0.003125098024367758</v>
+        <v>0.003222382608560667</v>
       </c>
       <c r="BS38" t="n">
-        <v>0.01888038015507042</v>
-      </c>
-      <c r="BT38" t="n">
-        <v>0.003222382608560667</v>
-      </c>
-      <c r="BU38" t="n">
         <v>0.01390630296152135</v>
-      </c>
-      <c r="BV38" t="n">
-        <v>0.0005141241401749726</v>
       </c>
     </row>
     <row r="39">
@@ -9328,13 +8980,13 @@
         <v>0.02230254995202428</v>
       </c>
       <c r="BC39" t="n">
-        <v>0.02471578051441326</v>
+        <v>0.01395651371038656</v>
       </c>
       <c r="BD39" t="n">
-        <v>0.01465641061929874</v>
+        <v>0.00241327523880501</v>
       </c>
       <c r="BE39" t="n">
-        <v>0.014606883216037</v>
+        <v>0.005323655926293969</v>
       </c>
       <c r="BF39" t="n">
         <v>0.007097883912729339</v>
@@ -9364,28 +9016,19 @@
         <v>0.004582386659712119</v>
       </c>
       <c r="BO39" t="n">
-        <v>0.02039103032604158</v>
+        <v>0.04282268970890933</v>
       </c>
       <c r="BP39" t="n">
         <v>0.01310177143715121</v>
       </c>
       <c r="BQ39" t="n">
-        <v>0.001730497979339635</v>
+        <v>0.0144404490939933</v>
       </c>
       <c r="BR39" t="n">
-        <v>0.0144404490939933</v>
+        <v>0.007885806159594175</v>
       </c>
       <c r="BS39" t="n">
-        <v>0.03731416234654131</v>
-      </c>
-      <c r="BT39" t="n">
-        <v>0.007885806159594175</v>
-      </c>
-      <c r="BU39" t="n">
         <v>0.003299543159643256</v>
-      </c>
-      <c r="BV39" t="n">
-        <v>0.001223559686164391</v>
       </c>
     </row>
     <row r="40">
@@ -9554,13 +9197,13 @@
         <v>0.03385059253719615</v>
       </c>
       <c r="BC40" t="n">
-        <v>0.003188941578910574</v>
+        <v>0.001349394749949231</v>
       </c>
       <c r="BD40" t="n">
-        <v>0.01125757323983896</v>
+        <v>0.0107634113008715</v>
       </c>
       <c r="BE40" t="n">
-        <v>0.001443410560827867</v>
+        <v>0.001205813905370472</v>
       </c>
       <c r="BF40" t="n">
         <v>0.004802074387665391</v>
@@ -9590,28 +9233,19 @@
         <v>0.002562931107795374</v>
       </c>
       <c r="BO40" t="n">
-        <v>0.00718407384230691</v>
+        <v>0.01091605660994283</v>
       </c>
       <c r="BP40" t="n">
         <v>0.03670842772603775</v>
       </c>
       <c r="BQ40" t="n">
-        <v>0.000967868369166652</v>
+        <v>0.01501122948586369</v>
       </c>
       <c r="BR40" t="n">
-        <v>0.01501122948586369</v>
+        <v>0.006725610962669397</v>
       </c>
       <c r="BS40" t="n">
-        <v>0.008224697011348115</v>
-      </c>
-      <c r="BT40" t="n">
-        <v>0.006725610962669397</v>
-      </c>
-      <c r="BU40" t="n">
         <v>0.01653670925605356</v>
-      </c>
-      <c r="BV40" t="n">
-        <v>0.0006843375329903025</v>
       </c>
     </row>
     <row r="41">
@@ -9780,13 +9414,13 @@
         <v>0.02520149469754248</v>
       </c>
       <c r="BC41" t="n">
-        <v>0.01650511163250232</v>
+        <v>0.00698473364253599</v>
       </c>
       <c r="BD41" t="n">
-        <v>0.008155969522381859</v>
+        <v>0.003709250488169604</v>
       </c>
       <c r="BE41" t="n">
-        <v>0.0232187767941761</v>
+        <v>0.004888988892200277</v>
       </c>
       <c r="BF41" t="n">
         <v>0.004422193539572804</v>
@@ -9816,28 +9450,19 @@
         <v>0.002506416972071236</v>
       </c>
       <c r="BO41" t="n">
-        <v>0.0243259140979273</v>
+        <v>0.02135245725330409</v>
       </c>
       <c r="BP41" t="n">
         <v>0.02496971322377584</v>
       </c>
       <c r="BQ41" t="n">
-        <v>0.0009465263033530942</v>
+        <v>0.0140336737786055</v>
       </c>
       <c r="BR41" t="n">
-        <v>0.0140336737786055</v>
+        <v>0.003278224511852382</v>
       </c>
       <c r="BS41" t="n">
-        <v>0.009020328824139841</v>
-      </c>
-      <c r="BT41" t="n">
-        <v>0.003278224511852382</v>
-      </c>
-      <c r="BU41" t="n">
         <v>0.02415564657325064</v>
-      </c>
-      <c r="BV41" t="n">
-        <v>0.0006692474885864938</v>
       </c>
     </row>
     <row r="42">
@@ -10006,13 +9631,13 @@
         <v>0.03439439024524244</v>
       </c>
       <c r="BC42" t="n">
-        <v>0.0116642807804414</v>
+        <v>0.00642083812842673</v>
       </c>
       <c r="BD42" t="n">
-        <v>0.009391608411140437</v>
+        <v>0.0004639116027515333</v>
       </c>
       <c r="BE42" t="n">
-        <v>0.001290532047683866</v>
+        <v>0.002551249435230306</v>
       </c>
       <c r="BF42" t="n">
         <v>0.0042741432276294</v>
@@ -10042,28 +9667,19 @@
         <v>0.002136563840056895</v>
       </c>
       <c r="BO42" t="n">
-        <v>0.03133600446223898</v>
+        <v>0.0302787130707191</v>
       </c>
       <c r="BP42" t="n">
         <v>0.02869373696980717</v>
       </c>
       <c r="BQ42" t="n">
-        <v>0.0008068545241838785</v>
+        <v>0.009536250339698404</v>
       </c>
       <c r="BR42" t="n">
-        <v>0.009536250339698404</v>
+        <v>0.01199582318173884</v>
       </c>
       <c r="BS42" t="n">
-        <v>0.01487237323695827</v>
-      </c>
-      <c r="BT42" t="n">
-        <v>0.01199582318173884</v>
-      </c>
-      <c r="BU42" t="n">
         <v>0.0239453205954734</v>
-      </c>
-      <c r="BV42" t="n">
-        <v>0.00057049166204024</v>
       </c>
     </row>
     <row r="43">
@@ -10232,13 +9848,13 @@
         <v>0.02213381088280673</v>
       </c>
       <c r="BC43" t="n">
-        <v>0.1071345387338681</v>
+        <v>0.06182788053224211</v>
       </c>
       <c r="BD43" t="n">
-        <v>0.01259885507582656</v>
+        <v>0.0004224648663388067</v>
       </c>
       <c r="BE43" t="n">
-        <v>0.02057274066918658</v>
+        <v>0.01279297993468867</v>
       </c>
       <c r="BF43" t="n">
         <v>0.02031993557838813</v>
@@ -10268,28 +9884,19 @@
         <v>0.003509367240231398</v>
       </c>
       <c r="BO43" t="n">
-        <v>0.01236741804872186</v>
+        <v>0.009469634429345055</v>
       </c>
       <c r="BP43" t="n">
         <v>0.00378822590650667</v>
       </c>
       <c r="BQ43" t="n">
-        <v>0.001325281642287836</v>
+        <v>0.01396422333346695</v>
       </c>
       <c r="BR43" t="n">
-        <v>0.01396422333346695</v>
+        <v>0.00423853990665876</v>
       </c>
       <c r="BS43" t="n">
-        <v>0.002735593382970612</v>
-      </c>
-      <c r="BT43" t="n">
-        <v>0.00423853990665876</v>
-      </c>
-      <c r="BU43" t="n">
         <v>0.02100933767529662</v>
-      </c>
-      <c r="BV43" t="n">
-        <v>0.0009370488782286397</v>
       </c>
     </row>
     <row r="44">
@@ -10458,13 +10065,13 @@
         <v>0.3427377554665586</v>
       </c>
       <c r="BC44" t="n">
-        <v>0.002042653600142987</v>
+        <v>0.009509299544187602</v>
       </c>
       <c r="BD44" t="n">
-        <v>0.05540053011855928</v>
+        <v>0.0427309136534998</v>
       </c>
       <c r="BE44" t="n">
-        <v>0.007448984559610577</v>
+        <v>0.01466739157733318</v>
       </c>
       <c r="BF44" t="n">
         <v>0.02254938853686375</v>
@@ -10494,28 +10101,19 @@
         <v>0.006092019738197487</v>
       </c>
       <c r="BO44" t="n">
-        <v>0.000690638324608419</v>
+        <v>0.01230936754482541</v>
       </c>
       <c r="BP44" t="n">
         <v>0.05276899754682549</v>
       </c>
       <c r="BQ44" t="n">
-        <v>0.002300597620828049</v>
+        <v>0.007692153440652037</v>
       </c>
       <c r="BR44" t="n">
-        <v>0.007692153440652037</v>
+        <v>0.01539843032267839</v>
       </c>
       <c r="BS44" t="n">
-        <v>0.0139177603631193</v>
-      </c>
-      <c r="BT44" t="n">
-        <v>0.01539843032267839</v>
-      </c>
-      <c r="BU44" t="n">
         <v>0.04635883235390108</v>
-      </c>
-      <c r="BV44" t="n">
-        <v>0.001626652291154421</v>
       </c>
     </row>
     <row r="45">
@@ -10684,13 +10282,13 @@
         <v>0.1142514044217902</v>
       </c>
       <c r="BC45" t="n">
-        <v>0.002087883474722806</v>
+        <v>0.01019329238854365</v>
       </c>
       <c r="BD45" t="n">
-        <v>0.04295192175356333</v>
+        <v>0.0116376701365315</v>
       </c>
       <c r="BE45" t="n">
-        <v>0.0180901269748109</v>
+        <v>0.01481519204390202</v>
       </c>
       <c r="BF45" t="n">
         <v>0.02295611769580525</v>
@@ -10720,28 +10318,19 @@
         <v>0.001016283419423721</v>
       </c>
       <c r="BO45" t="n">
-        <v>0.004320975488882985</v>
+        <v>0.03067361806396796</v>
       </c>
       <c r="BP45" t="n">
         <v>0.0438248332942347</v>
       </c>
       <c r="BQ45" t="n">
-        <v>0.007119313517640904</v>
+        <v>0.02755913905897544</v>
       </c>
       <c r="BR45" t="n">
-        <v>0.02755913905897544</v>
+        <v>0.01990846476869048</v>
       </c>
       <c r="BS45" t="n">
-        <v>0.03276489732389994</v>
-      </c>
-      <c r="BT45" t="n">
-        <v>0.01990846476869048</v>
-      </c>
-      <c r="BU45" t="n">
         <v>0.08884316088359544</v>
-      </c>
-      <c r="BV45" t="n">
-        <v>0.005033756246669949</v>
       </c>
     </row>
     <row r="46">
@@ -10910,13 +10499,13 @@
         <v>0.05291807217473609</v>
       </c>
       <c r="BC46" t="n">
-        <v>0.0219857554178942</v>
+        <v>0.002588492658716036</v>
       </c>
       <c r="BD46" t="n">
-        <v>0.006719863645566311</v>
+        <v>0.01733658418855369</v>
       </c>
       <c r="BE46" t="n">
-        <v>0.0215071359192024</v>
+        <v>0.01005098356574973</v>
       </c>
       <c r="BF46" t="n">
         <v>0.01009143243284935</v>
@@ -10946,28 +10535,19 @@
         <v>0.00873174855738704</v>
       </c>
       <c r="BO46" t="n">
-        <v>0.003704390313452987</v>
+        <v>0.0129139400407663</v>
       </c>
       <c r="BP46" t="n">
         <v>0.03802417240343921</v>
       </c>
       <c r="BQ46" t="n">
-        <v>0.003297467969586239</v>
+        <v>0.01486582657737987</v>
       </c>
       <c r="BR46" t="n">
-        <v>0.01486582657737987</v>
+        <v>0.01375258296390794</v>
       </c>
       <c r="BS46" t="n">
-        <v>0.01321933285949997</v>
-      </c>
-      <c r="BT46" t="n">
-        <v>0.01375258296390794</v>
-      </c>
-      <c r="BU46" t="n">
         <v>0.0273377904110743</v>
-      </c>
-      <c r="BV46" t="n">
-        <v>0.002331495859673704</v>
       </c>
     </row>
     <row r="47">
@@ -11136,13 +10716,13 @@
         <v>0.08836246399868826</v>
       </c>
       <c r="BC47" t="n">
-        <v>0.03623748846903636</v>
+        <v>0.006472095556372235</v>
       </c>
       <c r="BD47" t="n">
-        <v>0.02627612469685633</v>
+        <v>0.02122487690908663</v>
       </c>
       <c r="BE47" t="n">
-        <v>0.03176961449601675</v>
+        <v>0.02771564018091044</v>
       </c>
       <c r="BF47" t="n">
         <v>0.01544107191046337</v>
@@ -11172,28 +10752,19 @@
         <v>0.007081836592880647</v>
       </c>
       <c r="BO47" t="n">
-        <v>0.002055300081550456</v>
+        <v>0.02930656194182432</v>
       </c>
       <c r="BP47" t="n">
         <v>0.05809235554314825</v>
       </c>
       <c r="BQ47" t="n">
-        <v>0.005506103733092894</v>
+        <v>0.01209509885776721</v>
       </c>
       <c r="BR47" t="n">
-        <v>0.01209509885776721</v>
+        <v>0.03274456290335772</v>
       </c>
       <c r="BS47" t="n">
-        <v>0.03563978012015569</v>
-      </c>
-      <c r="BT47" t="n">
-        <v>0.03274456290335772</v>
-      </c>
-      <c r="BU47" t="n">
         <v>0.09688672340747058</v>
-      </c>
-      <c r="BV47" t="n">
-        <v>0.003893125930272745</v>
       </c>
     </row>
     <row r="48">
@@ -11362,13 +10933,13 @@
         <v>0.0811493982049892</v>
       </c>
       <c r="BC48" t="n">
-        <v>0.001689849439854583</v>
+        <v>0.01158130438816004</v>
       </c>
       <c r="BD48" t="n">
-        <v>0.01858164105229285</v>
+        <v>0.02400344730981754</v>
       </c>
       <c r="BE48" t="n">
-        <v>0.01151262308030666</v>
+        <v>0.01624597201338341</v>
       </c>
       <c r="BF48" t="n">
         <v>0.008493518413138373</v>
@@ -11398,28 +10969,19 @@
         <v>0.00177386849959767</v>
       </c>
       <c r="BO48" t="n">
-        <v>0.006732928270855104</v>
+        <v>0.02246420307735621</v>
       </c>
       <c r="BP48" t="n">
         <v>0.01900654342961206</v>
       </c>
       <c r="BQ48" t="n">
-        <v>0.005056638126358326</v>
+        <v>0.001302135083048208</v>
       </c>
       <c r="BR48" t="n">
-        <v>0.001302135083048208</v>
+        <v>0.03128123812380424</v>
       </c>
       <c r="BS48" t="n">
-        <v>0.0215951195946641</v>
-      </c>
-      <c r="BT48" t="n">
-        <v>0.03128123812380424</v>
-      </c>
-      <c r="BU48" t="n">
         <v>0.04738855948314601</v>
-      </c>
-      <c r="BV48" t="n">
-        <v>0.003575328392636961</v>
       </c>
     </row>
     <row r="49">
@@ -11588,13 +11150,13 @@
         <v>0.07984183925130348</v>
       </c>
       <c r="BC49" t="n">
-        <v>0.01776361439943158</v>
+        <v>0.01204803410781001</v>
       </c>
       <c r="BD49" t="n">
-        <v>0.004321925079383628</v>
+        <v>0.02472713614091582</v>
       </c>
       <c r="BE49" t="n">
-        <v>0.007610594784701852</v>
+        <v>0.02042135200646558</v>
       </c>
       <c r="BF49" t="n">
         <v>0.009892239359200422</v>
@@ -11624,28 +11186,19 @@
         <v>0.001398952257412519</v>
       </c>
       <c r="BO49" t="n">
-        <v>0.01225319644428478</v>
+        <v>0.02794291941503756</v>
       </c>
       <c r="BP49" t="n">
         <v>0.02375855114121058</v>
       </c>
       <c r="BQ49" t="n">
-        <v>0.004975160597209343</v>
+        <v>0.02604045108329631</v>
       </c>
       <c r="BR49" t="n">
-        <v>0.02604045108329631</v>
+        <v>0.004993806400291572</v>
       </c>
       <c r="BS49" t="n">
-        <v>0.0243804553952919</v>
-      </c>
-      <c r="BT49" t="n">
-        <v>0.004993806400291572</v>
-      </c>
-      <c r="BU49" t="n">
         <v>0.05937930650499556</v>
-      </c>
-      <c r="BV49" t="n">
-        <v>0.003517719183504559</v>
       </c>
     </row>
     <row r="50">
@@ -11814,13 +11367,13 @@
         <v>0.06480962419335902</v>
       </c>
       <c r="BC50" t="n">
-        <v>0.0507234604890468</v>
+        <v>0.04929110767950343</v>
       </c>
       <c r="BD50" t="n">
-        <v>0.03130905922845128</v>
+        <v>0.004374292675655973</v>
       </c>
       <c r="BE50" t="n">
-        <v>0.007557968336331698</v>
+        <v>0.002998778859098601</v>
       </c>
       <c r="BF50" t="n">
         <v>0.0004877061923479308</v>
@@ -11850,28 +11403,19 @@
         <v>0.003417228337075283</v>
       </c>
       <c r="BO50" t="n">
-        <v>0.004923759845148611</v>
+        <v>0.009432043541885753</v>
       </c>
       <c r="BP50" t="n">
         <v>0.008641884468639952</v>
       </c>
       <c r="BQ50" t="n">
-        <v>0.004038462686109537</v>
+        <v>0.01163520259204906</v>
       </c>
       <c r="BR50" t="n">
-        <v>0.01163520259204906</v>
+        <v>0.009381470508426918</v>
       </c>
       <c r="BS50" t="n">
-        <v>0.00743244502847716</v>
-      </c>
-      <c r="BT50" t="n">
-        <v>0.009381470508426918</v>
-      </c>
-      <c r="BU50" t="n">
         <v>0.009049325694552543</v>
-      </c>
-      <c r="BV50" t="n">
-        <v>0.002855420922645866</v>
       </c>
     </row>
     <row r="51">
@@ -12040,13 +11584,13 @@
         <v>0.05238342816714035</v>
       </c>
       <c r="BC51" t="n">
-        <v>0.004617201790122729</v>
+        <v>0.009280089842770548</v>
       </c>
       <c r="BD51" t="n">
-        <v>0.03036216598044021</v>
+        <v>3.163522615819365e-05</v>
       </c>
       <c r="BE51" t="n">
-        <v>0.009523344622271522</v>
+        <v>0.02756847467995183</v>
       </c>
       <c r="BF51" t="n">
         <v>0.001427892659168219</v>
@@ -12076,28 +11620,19 @@
         <v>0.008487350636976572</v>
       </c>
       <c r="BO51" t="n">
-        <v>0.00931317272436823</v>
+        <v>0.01700019462011118</v>
       </c>
       <c r="BP51" t="n">
         <v>0.05162698621238353</v>
       </c>
       <c r="BQ51" t="n">
-        <v>0.003264152857796898</v>
+        <v>0.02449420229153995</v>
       </c>
       <c r="BR51" t="n">
-        <v>0.02449420229153995</v>
+        <v>0.02910807491150364</v>
       </c>
       <c r="BS51" t="n">
-        <v>0.02616947348137138</v>
-      </c>
-      <c r="BT51" t="n">
-        <v>0.02910807491150364</v>
-      </c>
-      <c r="BU51" t="n">
         <v>0.09038182063319358</v>
-      </c>
-      <c r="BV51" t="n">
-        <v>0.002307940196383619</v>
       </c>
     </row>
     <row r="52">
@@ -12266,13 +11801,13 @@
         <v>0.05376405722732835</v>
       </c>
       <c r="BC52" t="n">
-        <v>0.03235166189353728</v>
+        <v>0.01245766882409528</v>
       </c>
       <c r="BD52" t="n">
-        <v>0.01701301669117523</v>
+        <v>0.02555472532293904</v>
       </c>
       <c r="BE52" t="n">
-        <v>0.02382236983127365</v>
+        <v>0.01225835319160222</v>
       </c>
       <c r="BF52" t="n">
         <v>0.008464768658374327</v>
@@ -12302,28 +11837,19 @@
         <v>0.008871340353893748</v>
       </c>
       <c r="BO52" t="n">
-        <v>0.002143238987713542</v>
+        <v>0.02203677250253072</v>
       </c>
       <c r="BP52" t="n">
         <v>0.007391622540251182</v>
       </c>
       <c r="BQ52" t="n">
-        <v>0.003350183582590064</v>
+        <v>0.005430076846918319</v>
       </c>
       <c r="BR52" t="n">
-        <v>0.005430076846918319</v>
+        <v>0.007068686851900011</v>
       </c>
       <c r="BS52" t="n">
-        <v>0.02803999873991438</v>
-      </c>
-      <c r="BT52" t="n">
-        <v>0.007068686851900011</v>
-      </c>
-      <c r="BU52" t="n">
         <v>0.003857875785433042</v>
-      </c>
-      <c r="BV52" t="n">
-        <v>0.002368768771675334</v>
       </c>
     </row>
     <row r="53">
@@ -12492,13 +12018,13 @@
         <v>0.02738418140161205</v>
       </c>
       <c r="BC53" t="n">
-        <v>0.01024422227849514</v>
+        <v>8.9379332268828e-05</v>
       </c>
       <c r="BD53" t="n">
-        <v>0.002118535212986692</v>
+        <v>0.003275373788603221</v>
       </c>
       <c r="BE53" t="n">
-        <v>0.01800133849107089</v>
+        <v>0.01528120427056046</v>
       </c>
       <c r="BF53" t="n">
         <v>0.003672644567790729</v>
@@ -12528,28 +12054,19 @@
         <v>0.004518527917252935</v>
       </c>
       <c r="BO53" t="n">
-        <v>0.01186040761797362</v>
+        <v>0.003235579457332337</v>
       </c>
       <c r="BP53" t="n">
         <v>0.02763913398142545</v>
       </c>
       <c r="BQ53" t="n">
-        <v>0.001706382287453487</v>
+        <v>0.009301738056527667</v>
       </c>
       <c r="BR53" t="n">
-        <v>0.009301738056527667</v>
+        <v>0.001250606976815755</v>
       </c>
       <c r="BS53" t="n">
-        <v>0.01169589630225939</v>
-      </c>
-      <c r="BT53" t="n">
-        <v>0.001250606976815755</v>
-      </c>
-      <c r="BU53" t="n">
         <v>0.01786325331891046</v>
-      </c>
-      <c r="BV53" t="n">
-        <v>0.001206508531671213</v>
       </c>
     </row>
     <row r="54">
@@ -12718,13 +12235,13 @@
         <v>1</v>
       </c>
       <c r="BC54" t="n">
-        <v>0.01089585021353345</v>
+        <v>0.0142470479973795</v>
       </c>
       <c r="BD54" t="n">
-        <v>0.003751958820554712</v>
+        <v>0.03036952550144083</v>
       </c>
       <c r="BE54" t="n">
-        <v>0.0102694789377217</v>
+        <v>0.03391655037935729</v>
       </c>
       <c r="BF54" t="n">
         <v>0.000133115643617196</v>
@@ -12754,28 +12271,19 @@
         <v>0.01211046157020072</v>
       </c>
       <c r="BO54" t="n">
-        <v>0.001380780635031111</v>
+        <v>0.02290129974671878</v>
       </c>
       <c r="BP54" t="n">
         <v>0.05485842354012298</v>
       </c>
       <c r="BQ54" t="n">
-        <v>0.004573409193151588</v>
+        <v>0.0002586283798122302</v>
       </c>
       <c r="BR54" t="n">
-        <v>0.0002586283798122302</v>
+        <v>0.0225763556474599</v>
       </c>
       <c r="BS54" t="n">
-        <v>0.02766742546219812</v>
-      </c>
-      <c r="BT54" t="n">
-        <v>0.0225763556474599</v>
-      </c>
-      <c r="BU54" t="n">
         <v>0.07879659281699733</v>
-      </c>
-      <c r="BV54" t="n">
-        <v>0.00323365827864722</v>
       </c>
     </row>
     <row r="55">
@@ -12785,220 +12293,215 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.06199980491633291</v>
+        <v>0.03538793566540956</v>
       </c>
       <c r="C55" t="n">
-        <v>0.03634610570609132</v>
+        <v>0.01310984183389074</v>
       </c>
       <c r="D55" t="n">
-        <v>0.01919621966967349</v>
+        <v>0.02381257249617686</v>
       </c>
       <c r="E55" t="n">
-        <v>0.003349851472320916</v>
+        <v>0.01184826058822959</v>
       </c>
       <c r="F55" t="n">
-        <v>0.02317343264249863</v>
+        <v>0.00554239968897492</v>
       </c>
       <c r="G55" t="n">
-        <v>0.04699212229416062</v>
+        <v>0.04740773650629732</v>
       </c>
       <c r="H55" t="n">
-        <v>0.03376336196812869</v>
+        <v>0.01619223350901882</v>
       </c>
       <c r="I55" t="n">
-        <v>0.06025741850042375</v>
+        <v>0.03621774784585466</v>
       </c>
       <c r="J55" t="n">
-        <v>0.02125037391278176</v>
+        <v>0.002251250438037344</v>
       </c>
       <c r="K55" t="n">
-        <v>0.02582096292746271</v>
+        <v>0.03362428255421247</v>
       </c>
       <c r="L55" t="n">
-        <v>0.0007821672734841604</v>
+        <v>0.01539882535732136</v>
       </c>
       <c r="M55" t="n">
-        <v>0.0382825631125187</v>
+        <v>0.02675910458022675</v>
       </c>
       <c r="N55" t="n">
-        <v>0.01749284737019156</v>
+        <v>0.01031833311555533</v>
       </c>
       <c r="O55" t="n">
-        <v>0.01069451999947767</v>
+        <v>0.001755670117268482</v>
       </c>
       <c r="P55" t="n">
-        <v>0.02004084431436316</v>
+        <v>0.0005404465640469524</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.05650519307565108</v>
+        <v>0.02278542499906743</v>
       </c>
       <c r="R55" t="n">
-        <v>0.008364670167640115</v>
+        <v>0.01751584984954208</v>
       </c>
       <c r="S55" t="n">
-        <v>0.01666748313612651</v>
+        <v>0.004133752945033797</v>
       </c>
       <c r="T55" t="n">
-        <v>0.004648548378302506</v>
+        <v>0.003714629183353675</v>
       </c>
       <c r="U55" t="n">
-        <v>0.01254410841537731</v>
+        <v>0.003208185098641405</v>
       </c>
       <c r="V55" t="n">
-        <v>0.03433792070995886</v>
+        <v>0.008286118138351232</v>
       </c>
       <c r="W55" t="n">
-        <v>0.01676420164973229</v>
+        <v>0.004398359618991063</v>
       </c>
       <c r="X55" t="n">
-        <v>0.006597953284682317</v>
+        <v>0.004573781675797101</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.03071726198995382</v>
+        <v>0.0135513982892309</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.03071726198995382</v>
+        <v>0.01209127583656689</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.02938999938981738</v>
+        <v>0.006069639584929231</v>
       </c>
       <c r="AB55" t="n">
-        <v>0.04021211588347324</v>
+        <v>0.01940971016630304</v>
       </c>
       <c r="AC55" t="n">
-        <v>0.02912328940483577</v>
+        <v>0.009072168492878513</v>
       </c>
       <c r="AD55" t="n">
-        <v>0.02578926467927264</v>
+        <v>0.009058201705849808</v>
       </c>
       <c r="AE55" t="n">
-        <v>0.01997430351550693</v>
+        <v>0.001522205670558471</v>
       </c>
       <c r="AF55" t="n">
-        <v>0.002558689115929799</v>
+        <v>0.0117021941507468</v>
       </c>
       <c r="AG55" t="n">
-        <v>0.01069409782525327</v>
+        <v>0.0007848677018753164</v>
       </c>
       <c r="AH55" t="n">
-        <v>0.00354312136814932</v>
+        <v>0.006802598099126971</v>
       </c>
       <c r="AI55" t="n">
-        <v>0.04877196230375212</v>
+        <v>0.009574015707211093</v>
       </c>
       <c r="AJ55" t="n">
-        <v>0.04400164995755525</v>
+        <v>0.004721877527824012</v>
       </c>
       <c r="AK55" t="n">
-        <v>0.0116642807804414</v>
+        <v>0.006681192577890051</v>
       </c>
       <c r="AL55" t="n">
-        <v>0.0116642807804414</v>
+        <v>0.005572856260433127</v>
       </c>
       <c r="AM55" t="n">
-        <v>0.02471578051441326</v>
+        <v>0.01395651371038656</v>
       </c>
       <c r="AN55" t="n">
-        <v>0.003188941578910574</v>
+        <v>0.001349394749949231</v>
       </c>
       <c r="AO55" t="n">
-        <v>0.01650511163250232</v>
+        <v>0.00698473364253599</v>
       </c>
       <c r="AP55" t="n">
-        <v>0.0116642807804414</v>
+        <v>0.00642083812842673</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.1071345387338681</v>
+        <v>0.06182788053224211</v>
       </c>
       <c r="AR55" t="n">
-        <v>0.002042653600142987</v>
+        <v>0.009509299544187602</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.002087883474722806</v>
+        <v>0.01019329238854365</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.0219857554178942</v>
+        <v>0.002588492658716036</v>
       </c>
       <c r="AU55" t="n">
-        <v>0.03623748846903636</v>
+        <v>0.006472095556372235</v>
       </c>
       <c r="AV55" t="n">
-        <v>0.001689849439854583</v>
+        <v>0.01158130438816004</v>
       </c>
       <c r="AW55" t="n">
-        <v>0.01776361439943158</v>
+        <v>0.01204803410781001</v>
       </c>
       <c r="AX55" t="n">
-        <v>0.0507234604890468</v>
+        <v>0.04929110767950343</v>
       </c>
       <c r="AY55" t="n">
-        <v>0.004617201790122729</v>
+        <v>0.009280089842770548</v>
       </c>
       <c r="AZ55" t="n">
-        <v>0.03235166189353728</v>
+        <v>0.01245766882409528</v>
       </c>
       <c r="BA55" t="n">
-        <v>0.01024422227849514</v>
+        <v>8.9379332268828e-05</v>
       </c>
       <c r="BB55" t="n">
-        <v>0.01089585021353345</v>
+        <v>0.0142470479973795</v>
       </c>
       <c r="BC55" t="n">
         <v>1</v>
       </c>
       <c r="BD55" t="n">
-        <v>0.001044296413012499</v>
+        <v>0.02144552988214849</v>
       </c>
       <c r="BE55" t="n">
-        <v>0.04073621221620954</v>
+        <v>0.03157437748195176</v>
       </c>
       <c r="BF55" t="n">
-        <v>0.0192672645626225</v>
+        <v>0.0009439069286630524</v>
       </c>
       <c r="BG55" t="n">
-        <v>0.02213373389848676</v>
+        <v>0.005114327312249168</v>
       </c>
       <c r="BH55" t="n">
-        <v>0.01676721059419935</v>
+        <v>0.02535501448179229</v>
       </c>
       <c r="BI55" t="n">
-        <v>0.02177943022694331</v>
+        <v>0.02568064292450587</v>
       </c>
       <c r="BJ55" t="n">
-        <v>0.0584563195068746</v>
+        <v>0.04710110261480005</v>
       </c>
       <c r="BK55" t="n">
-        <v>0.02234949345084096</v>
+        <v>0.06016777820282514</v>
       </c>
       <c r="BL55" t="n">
-        <v>0.05081981023182033</v>
+        <v>0.0002324926990699722</v>
       </c>
       <c r="BM55" t="n">
-        <v>0.003628979030401325</v>
+        <v>0.00900200708162785</v>
       </c>
       <c r="BN55" t="n">
-        <v>0.003188941578910572</v>
+        <v>0.006206450688722867</v>
       </c>
       <c r="BO55" t="n">
-        <v>0.001020752166307554</v>
+        <v>0.01189981458166534</v>
       </c>
       <c r="BP55" t="n">
-        <v>0.03366916569475919</v>
-      </c>
-      <c r="BQ55" t="inlineStr"/>
+        <v>0.01409643608458979</v>
+      </c>
+      <c r="BQ55" t="n">
+        <v>0.01531949267155089</v>
+      </c>
       <c r="BR55" t="n">
-        <v>0.04767346109007327</v>
+        <v>0.03182412918852555</v>
       </c>
       <c r="BS55" t="n">
-        <v>8.868217768266374e-05</v>
-      </c>
-      <c r="BT55" t="n">
-        <v>0.0438763114716857</v>
-      </c>
-      <c r="BU55" t="n">
-        <v>0.04068993249896095</v>
-      </c>
-      <c r="BV55" t="inlineStr"/>
+        <v>0.01498740193771978</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -13007,222 +12510,215 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.001949427826474193</v>
+        <v>0.08137280416788904</v>
       </c>
       <c r="C56" t="n">
-        <v>0.002354894569598628</v>
+        <v>0.04824277061924104</v>
       </c>
       <c r="D56" t="n">
-        <v>0.01487215240543682</v>
+        <v>0.02691033675391013</v>
       </c>
       <c r="E56" t="n">
-        <v>0.02684805346633447</v>
+        <v>0.02703100065449614</v>
       </c>
       <c r="F56" t="n">
-        <v>0.01445007117418078</v>
+        <v>0.01422533104602497</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0007449952331115546</v>
+        <v>0.03376576176932485</v>
       </c>
       <c r="H56" t="n">
-        <v>0.02760230548973241</v>
+        <v>0.02386847647847477</v>
       </c>
       <c r="I56" t="n">
-        <v>0.03262267793877664</v>
+        <v>0.03539839110708158</v>
       </c>
       <c r="J56" t="n">
-        <v>0.04699135530215266</v>
+        <v>0.03589425300187516</v>
       </c>
       <c r="K56" t="n">
-        <v>0.02789805489398177</v>
+        <v>0.0632674410674896</v>
       </c>
       <c r="L56" t="n">
-        <v>0.0108198699749711</v>
+        <v>0.03626985989850104</v>
       </c>
       <c r="M56" t="n">
-        <v>0.05089962740885088</v>
+        <v>0.02295774218201443</v>
       </c>
       <c r="N56" t="n">
-        <v>0.027821219252182</v>
+        <v>0.0298165978500196</v>
       </c>
       <c r="O56" t="n">
-        <v>0.03131528074310241</v>
+        <v>0.0312635335520239</v>
       </c>
       <c r="P56" t="n">
-        <v>0.02186917146710192</v>
+        <v>0.02492375556597328</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.003403640683078676</v>
+        <v>0.02506699296282477</v>
       </c>
       <c r="R56" t="n">
-        <v>0.02749231260548032</v>
+        <v>0.0325795545855429</v>
       </c>
       <c r="S56" t="n">
-        <v>0.006591410567332703</v>
+        <v>0.03244081135523689</v>
       </c>
       <c r="T56" t="n">
-        <v>0.01751246543066018</v>
+        <v>0.03430074453276402</v>
       </c>
       <c r="U56" t="n">
-        <v>0.0293413891284154</v>
+        <v>0.02583051727618777</v>
       </c>
       <c r="V56" t="n">
-        <v>0.004148034582192811</v>
+        <v>0.01980825794727442</v>
       </c>
       <c r="W56" t="n">
-        <v>0.01374299253796579</v>
+        <v>0.01638839305122153</v>
       </c>
       <c r="X56" t="n">
-        <v>0.02332917746260874</v>
+        <v>0.006241020974874826</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.01816530611318624</v>
+        <v>0.004107405306234778</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.02394611697525887</v>
+        <v>0.002583573832380344</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.03691219688319221</v>
+        <v>0.008973203817629284</v>
       </c>
       <c r="AB56" t="n">
-        <v>6.040556255977794e-05</v>
+        <v>0.01100169519069185</v>
       </c>
       <c r="AC56" t="n">
-        <v>0.002272430255547714</v>
+        <v>0.01066228532137977</v>
       </c>
       <c r="AD56" t="n">
-        <v>0.02868528770858126</v>
+        <v>0.003481838906324554</v>
       </c>
       <c r="AE56" t="n">
-        <v>0.006165350628725873</v>
+        <v>0.001345976477481956</v>
       </c>
       <c r="AF56" t="n">
-        <v>0.01358176749184656</v>
+        <v>0.02783439992395563</v>
       </c>
       <c r="AG56" t="n">
-        <v>0.02969945464655577</v>
+        <v>0.000510106931565888</v>
       </c>
       <c r="AH56" t="n">
-        <v>0.03368760145995182</v>
+        <v>0.002672744062249419</v>
       </c>
       <c r="AI56" t="n">
-        <v>0.01811693183832272</v>
+        <v>0.00453876962313502</v>
       </c>
       <c r="AJ56" t="n">
-        <v>0.01017627166487385</v>
+        <v>0.00240863891125827</v>
       </c>
       <c r="AK56" t="n">
-        <v>0.009391608411140437</v>
+        <v>0.0008513623215477544</v>
       </c>
       <c r="AL56" t="n">
-        <v>0.006975149116957727</v>
+        <v>0.002677363593181379</v>
       </c>
       <c r="AM56" t="n">
-        <v>0.01465641061929874</v>
+        <v>0.00241327523880501</v>
       </c>
       <c r="AN56" t="n">
-        <v>0.01125757323983896</v>
+        <v>0.0107634113008715</v>
       </c>
       <c r="AO56" t="n">
-        <v>0.008155969522381859</v>
+        <v>0.003709250488169604</v>
       </c>
       <c r="AP56" t="n">
-        <v>0.009391608411140437</v>
+        <v>0.0004639116027515333</v>
       </c>
       <c r="AQ56" t="n">
-        <v>0.01259885507582656</v>
+        <v>0.0004224648663388067</v>
       </c>
       <c r="AR56" t="n">
-        <v>0.05540053011855928</v>
+        <v>0.0427309136534998</v>
       </c>
       <c r="AS56" t="n">
-        <v>0.04295192175356333</v>
+        <v>0.0116376701365315</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.006719863645566311</v>
+        <v>0.01733658418855369</v>
       </c>
       <c r="AU56" t="n">
-        <v>0.02627612469685633</v>
+        <v>0.02122487690908663</v>
       </c>
       <c r="AV56" t="n">
-        <v>0.01858164105229285</v>
+        <v>0.02400344730981754</v>
       </c>
       <c r="AW56" t="n">
-        <v>0.004321925079383628</v>
+        <v>0.02472713614091582</v>
       </c>
       <c r="AX56" t="n">
-        <v>0.03130905922845128</v>
+        <v>0.004374292675655973</v>
       </c>
       <c r="AY56" t="n">
-        <v>0.03036216598044021</v>
+        <v>3.163522615819365e-05</v>
       </c>
       <c r="AZ56" t="n">
-        <v>0.01701301669117523</v>
+        <v>0.02555472532293904</v>
       </c>
       <c r="BA56" t="n">
-        <v>0.002118535212986692</v>
+        <v>0.003275373788603221</v>
       </c>
       <c r="BB56" t="n">
-        <v>0.003751958820554712</v>
+        <v>0.03036952550144083</v>
       </c>
       <c r="BC56" t="n">
-        <v>0.001044296413012499</v>
+        <v>0.02144552988214849</v>
       </c>
       <c r="BD56" t="n">
         <v>1</v>
       </c>
       <c r="BE56" t="n">
-        <v>0.01385635525717359</v>
+        <v>0.01116193615588123</v>
       </c>
       <c r="BF56" t="n">
-        <v>0.01666659721428968</v>
+        <v>0.004327592077781921</v>
       </c>
       <c r="BG56" t="n">
-        <v>0.004108326259039735</v>
+        <v>0.002157471902650082</v>
       </c>
       <c r="BH56" t="n">
-        <v>0.003230859581870813</v>
+        <v>0.01328225914973858</v>
       </c>
       <c r="BI56" t="n">
-        <v>0.01401045384436557</v>
+        <v>0.0002539096328232793</v>
       </c>
       <c r="BJ56" t="n">
-        <v>0.0256495978128837</v>
+        <v>0.01124412776407741</v>
       </c>
       <c r="BK56" t="n">
-        <v>0.04970982803307244</v>
+        <v>0.03745657048396009</v>
       </c>
       <c r="BL56" t="n">
-        <v>0.01873764664091314</v>
+        <v>0.001638416855398229</v>
       </c>
       <c r="BM56" t="n">
-        <v>0.04250258145517564</v>
+        <v>0.02265130955272089</v>
       </c>
       <c r="BN56" t="n">
-        <v>0.00421118283786714</v>
+        <v>0.002291410638618907</v>
       </c>
       <c r="BO56" t="n">
-        <v>0.00310112120764007</v>
+        <v>0.01793009297397137</v>
       </c>
       <c r="BP56" t="n">
-        <v>0.02047535197295355</v>
+        <v>0.02387067296894107</v>
       </c>
       <c r="BQ56" t="n">
-        <v>0.002203627989516294</v>
+        <v>0.01792550672820482</v>
       </c>
       <c r="BR56" t="n">
-        <v>0.03886608019678472</v>
+        <v>0.01108146779532233</v>
       </c>
       <c r="BS56" t="n">
-        <v>0.05044538309607218</v>
-      </c>
-      <c r="BT56" t="n">
-        <v>0.02316233118261624</v>
-      </c>
-      <c r="BU56" t="n">
-        <v>0.0774793931397402</v>
-      </c>
-      <c r="BV56" t="inlineStr"/>
+        <v>0.004108340232959557</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -13231,220 +12727,215 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.02046429020002295</v>
+        <v>0.03996686946293188</v>
       </c>
       <c r="C57" t="n">
-        <v>0.009642045440987077</v>
+        <v>0.01517228203192017</v>
       </c>
       <c r="D57" t="n">
-        <v>0.004203510476926711</v>
+        <v>0.02298901725774528</v>
       </c>
       <c r="E57" t="n">
-        <v>0.001152901805283002</v>
+        <v>0.0202973028710319</v>
       </c>
       <c r="F57" t="n">
-        <v>0.04970215191505289</v>
+        <v>0.03708774072207367</v>
       </c>
       <c r="G57" t="n">
-        <v>0.04765597935776248</v>
+        <v>0.06056118199656295</v>
       </c>
       <c r="H57" t="n">
-        <v>0.02474708898280938</v>
+        <v>0.00581224917849731</v>
       </c>
       <c r="I57" t="n">
-        <v>0.04587855566253819</v>
+        <v>0.0312111194749081</v>
       </c>
       <c r="J57" t="n">
-        <v>0.006598236592061788</v>
+        <v>0.004523535170252497</v>
       </c>
       <c r="K57" t="n">
-        <v>0.02952075924285805</v>
+        <v>0.05343803384792673</v>
       </c>
       <c r="L57" t="n">
-        <v>0.05560779961358914</v>
+        <v>0.05503425684792277</v>
       </c>
       <c r="M57" t="n">
-        <v>0.03495500295232348</v>
+        <v>0.03627024806821739</v>
       </c>
       <c r="N57" t="n">
-        <v>0.002420219845552686</v>
+        <v>0.02147065808366279</v>
       </c>
       <c r="O57" t="n">
-        <v>0.008777454054326086</v>
+        <v>0.005599263084569647</v>
       </c>
       <c r="P57" t="n">
-        <v>0.02104643628293237</v>
+        <v>0.02410127475648396</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.001901562611787774</v>
+        <v>0.01058336492535455</v>
       </c>
       <c r="R57" t="n">
-        <v>0.02252815331785482</v>
+        <v>0.0343629750456581</v>
       </c>
       <c r="S57" t="n">
-        <v>0.0003328336500071824</v>
+        <v>0.01271850974845222</v>
       </c>
       <c r="T57" t="n">
-        <v>0.02575401594073479</v>
+        <v>0.0231952386070544</v>
       </c>
       <c r="U57" t="n">
-        <v>0.02183589933765741</v>
+        <v>0.01686676244011548</v>
       </c>
       <c r="V57" t="n">
-        <v>0.00479650325711484</v>
+        <v>0.01010199120746887</v>
       </c>
       <c r="W57" t="n">
-        <v>0.004296637759624531</v>
+        <v>0.00897370388006845</v>
       </c>
       <c r="X57" t="n">
-        <v>0.007550969108161149</v>
+        <v>0.008582319227593688</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.005215497748283363</v>
+        <v>0.009949895965139902</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.001983744455209475</v>
+        <v>0.00230052029555238</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.02594023508559534</v>
+        <v>0.02040862920977369</v>
       </c>
       <c r="AB57" t="n">
-        <v>0.008863401255175716</v>
+        <v>0.003561049246232531</v>
       </c>
       <c r="AC57" t="n">
-        <v>0.002423646865470857</v>
+        <v>0.0006630759691933323</v>
       </c>
       <c r="AD57" t="n">
-        <v>0.005822635744202651</v>
+        <v>0.004165559995683312</v>
       </c>
       <c r="AE57" t="n">
-        <v>0.009847975380861173</v>
+        <v>0.004459192441726324</v>
       </c>
       <c r="AF57" t="n">
-        <v>0.01513457500036528</v>
+        <v>0.02504273190828009</v>
       </c>
       <c r="AG57" t="n">
-        <v>0.0009714218229171539</v>
+        <v>0.0007463932486755861</v>
       </c>
       <c r="AH57" t="n">
-        <v>0.02261454808493251</v>
+        <v>0.006011466010792331</v>
       </c>
       <c r="AI57" t="n">
-        <v>0.001443410560827871</v>
+        <v>0.006778784617642059</v>
       </c>
       <c r="AJ57" t="n">
-        <v>0.005196740161363001</v>
+        <v>0.002681015677358657</v>
       </c>
       <c r="AK57" t="n">
-        <v>0.002626790885397794</v>
+        <v>0.0004737339509099651</v>
       </c>
       <c r="AL57" t="n">
-        <v>0.007787383834644597</v>
+        <v>0.004274239871454271</v>
       </c>
       <c r="AM57" t="n">
-        <v>0.014606883216037</v>
+        <v>0.005323655926293969</v>
       </c>
       <c r="AN57" t="n">
-        <v>0.001443410560827867</v>
+        <v>0.001205813905370472</v>
       </c>
       <c r="AO57" t="n">
-        <v>0.0232187767941761</v>
+        <v>0.004888988892200277</v>
       </c>
       <c r="AP57" t="n">
-        <v>0.001290532047683866</v>
+        <v>0.002551249435230306</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.02057274066918658</v>
+        <v>0.01279297993468867</v>
       </c>
       <c r="AR57" t="n">
-        <v>0.007448984559610577</v>
+        <v>0.01466739157733318</v>
       </c>
       <c r="AS57" t="n">
-        <v>0.0180901269748109</v>
+        <v>0.01481519204390202</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.0215071359192024</v>
+        <v>0.01005098356574973</v>
       </c>
       <c r="AU57" t="n">
-        <v>0.03176961449601675</v>
+        <v>0.02771564018091044</v>
       </c>
       <c r="AV57" t="n">
-        <v>0.01151262308030666</v>
+        <v>0.01624597201338341</v>
       </c>
       <c r="AW57" t="n">
-        <v>0.007610594784701852</v>
+        <v>0.02042135200646558</v>
       </c>
       <c r="AX57" t="n">
-        <v>0.007557968336331698</v>
+        <v>0.002998778859098601</v>
       </c>
       <c r="AY57" t="n">
-        <v>0.009523344622271522</v>
+        <v>0.02756847467995183</v>
       </c>
       <c r="AZ57" t="n">
-        <v>0.02382236983127365</v>
+        <v>0.01225835319160222</v>
       </c>
       <c r="BA57" t="n">
-        <v>0.01800133849107089</v>
+        <v>0.01528120427056046</v>
       </c>
       <c r="BB57" t="n">
-        <v>0.0102694789377217</v>
+        <v>0.03391655037935729</v>
       </c>
       <c r="BC57" t="n">
-        <v>0.04073621221620954</v>
+        <v>0.03157437748195176</v>
       </c>
       <c r="BD57" t="n">
-        <v>0.01385635525717359</v>
+        <v>0.01116193615588123</v>
       </c>
       <c r="BE57" t="n">
         <v>1</v>
       </c>
       <c r="BF57" t="n">
-        <v>0.0124723390517773</v>
+        <v>0.01111016998469479</v>
       </c>
       <c r="BG57" t="n">
-        <v>0.02051079298789799</v>
+        <v>0.006304739414844452</v>
       </c>
       <c r="BH57" t="n">
-        <v>0.03655675975474353</v>
+        <v>0.05136724065850728</v>
       </c>
       <c r="BI57" t="n">
-        <v>0.05683739105850078</v>
+        <v>0.05212892464527567</v>
       </c>
       <c r="BJ57" t="n">
-        <v>0.01534773529097734</v>
+        <v>0.04108422514878213</v>
       </c>
       <c r="BK57" t="n">
-        <v>0.05189317061503327</v>
+        <v>0.07023106658029714</v>
       </c>
       <c r="BL57" t="n">
-        <v>0.02264882147102527</v>
+        <v>0.04050216717263402</v>
       </c>
       <c r="BM57" t="n">
-        <v>0.01544456200260805</v>
+        <v>0.01704576223961297</v>
       </c>
       <c r="BN57" t="n">
-        <v>0.02075234867482443</v>
+        <v>0.005532304095882801</v>
       </c>
       <c r="BO57" t="n">
-        <v>0.02031894612442886</v>
+        <v>0.03345552102658301</v>
       </c>
       <c r="BP57" t="n">
-        <v>0.04258895933055443</v>
-      </c>
-      <c r="BQ57" t="inlineStr"/>
+        <v>0.01551655533696204</v>
+      </c>
+      <c r="BQ57" t="n">
+        <v>0.0170820165310973</v>
+      </c>
       <c r="BR57" t="n">
-        <v>0.0201327854265879</v>
+        <v>0.02670100051501863</v>
       </c>
       <c r="BS57" t="n">
-        <v>0.03271775824982018</v>
-      </c>
-      <c r="BT57" t="n">
-        <v>0.02550300916132501</v>
-      </c>
-      <c r="BU57" t="n">
-        <v>0.02096283806501375</v>
-      </c>
-      <c r="BV57" t="inlineStr"/>
+        <v>0.05909520697491774</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -13612,13 +13103,13 @@
         <v>0.000133115643617196</v>
       </c>
       <c r="BC58" t="n">
-        <v>0.0192672645626225</v>
+        <v>0.0009439069286630524</v>
       </c>
       <c r="BD58" t="n">
-        <v>0.01666659721428968</v>
+        <v>0.004327592077781921</v>
       </c>
       <c r="BE58" t="n">
-        <v>0.0124723390517773</v>
+        <v>0.01111016998469479</v>
       </c>
       <c r="BF58" t="n">
         <v>1</v>
@@ -13648,28 +13139,19 @@
         <v>0.002325861066622525</v>
       </c>
       <c r="BO58" t="n">
-        <v>0.006013644996172024</v>
+        <v>0.01397550692755328</v>
       </c>
       <c r="BP58" t="n">
         <v>0.004705411020855263</v>
       </c>
       <c r="BQ58" t="n">
-        <v>0.00600042894596732</v>
+        <v>0.01350190118022325</v>
       </c>
       <c r="BR58" t="n">
-        <v>0.01350190118022325</v>
+        <v>0.01861541590896975</v>
       </c>
       <c r="BS58" t="n">
-        <v>0.02031111917226761</v>
-      </c>
-      <c r="BT58" t="n">
-        <v>0.01861541590896975</v>
-      </c>
-      <c r="BU58" t="n">
         <v>0.002649781746116142</v>
-      </c>
-      <c r="BV58" t="n">
-        <v>0.001098478496558131</v>
       </c>
     </row>
     <row r="59">
@@ -13838,13 +13320,13 @@
         <v>0.001365419521422441</v>
       </c>
       <c r="BC59" t="n">
-        <v>0.02213373389848676</v>
+        <v>0.005114327312249168</v>
       </c>
       <c r="BD59" t="n">
-        <v>0.004108326259039735</v>
+        <v>0.002157471902650082</v>
       </c>
       <c r="BE59" t="n">
-        <v>0.02051079298789799</v>
+        <v>0.006304739414844452</v>
       </c>
       <c r="BF59" t="n">
         <v>0.4927939958593175</v>
@@ -13874,28 +13356,19 @@
         <v>0.0062981583314494</v>
       </c>
       <c r="BO59" t="n">
-        <v>0.00455713712843237</v>
+        <v>0.01039809710241942</v>
       </c>
       <c r="BP59" t="n">
         <v>0.01785201194092483</v>
       </c>
       <c r="BQ59" t="n">
-        <v>0.002020726576671262</v>
+        <v>0.01958376173019755</v>
       </c>
       <c r="BR59" t="n">
-        <v>0.01958376173019755</v>
+        <v>0.04326295203344885</v>
       </c>
       <c r="BS59" t="n">
-        <v>0.01542618971441872</v>
-      </c>
-      <c r="BT59" t="n">
-        <v>0.04326295203344885</v>
-      </c>
-      <c r="BU59" t="n">
         <v>0.003664876449728243</v>
-      </c>
-      <c r="BV59" t="n">
-        <v>0.002267443185536082</v>
       </c>
     </row>
     <row r="60">
@@ -14064,13 +13537,13 @@
         <v>0.04134466681216348</v>
       </c>
       <c r="BC60" t="n">
-        <v>0.01676721059419935</v>
+        <v>0.02535501448179229</v>
       </c>
       <c r="BD60" t="n">
-        <v>0.003230859581870813</v>
+        <v>0.01328225914973858</v>
       </c>
       <c r="BE60" t="n">
-        <v>0.03655675975474353</v>
+        <v>0.05136724065850728</v>
       </c>
       <c r="BF60" t="n">
         <v>0.006327014262832306</v>
@@ -14100,28 +13573,19 @@
         <v>0.0005129382222104972</v>
       </c>
       <c r="BO60" t="n">
-        <v>0.01176038369890601</v>
+        <v>0.03371091366983896</v>
       </c>
       <c r="BP60" t="n">
         <v>0.03791392054024134</v>
       </c>
       <c r="BQ60" t="n">
-        <v>0.0176273009440147</v>
+        <v>0.0714651809872822</v>
       </c>
       <c r="BR60" t="n">
-        <v>0.0714651809872822</v>
+        <v>0.0571828715623537</v>
       </c>
       <c r="BS60" t="n">
-        <v>0.04912955181564557</v>
-      </c>
-      <c r="BT60" t="n">
-        <v>0.0571828715623537</v>
-      </c>
-      <c r="BU60" t="n">
         <v>0.1330529401716488</v>
-      </c>
-      <c r="BV60" t="n">
-        <v>0.004793652344915101</v>
       </c>
     </row>
     <row r="61">
@@ -14290,13 +13754,13 @@
         <v>0.01340355658391399</v>
       </c>
       <c r="BC61" t="n">
-        <v>0.02177943022694331</v>
+        <v>0.02568064292450587</v>
       </c>
       <c r="BD61" t="n">
-        <v>0.01401045384436557</v>
+        <v>0.0002539096328232793</v>
       </c>
       <c r="BE61" t="n">
-        <v>0.05683739105850078</v>
+        <v>0.05212892464527567</v>
       </c>
       <c r="BF61" t="n">
         <v>0.01020888107955671</v>
@@ -14326,28 +13790,19 @@
         <v>0.006094117748384022</v>
       </c>
       <c r="BO61" t="n">
-        <v>0.01949287201178212</v>
+        <v>0.04101052437930797</v>
       </c>
       <c r="BP61" t="n">
         <v>0.06783724529121107</v>
       </c>
       <c r="BQ61" t="n">
-        <v>0.01233851541891691</v>
+        <v>0.08199294155591175</v>
       </c>
       <c r="BR61" t="n">
-        <v>0.08199294155591175</v>
+        <v>0.02474556354960487</v>
       </c>
       <c r="BS61" t="n">
-        <v>0.03419707259887714</v>
-      </c>
-      <c r="BT61" t="n">
-        <v>0.02474556354960487</v>
-      </c>
-      <c r="BU61" t="n">
         <v>0.1585771814492019</v>
-      </c>
-      <c r="BV61" t="n">
-        <v>0.008724026398150156</v>
       </c>
     </row>
     <row r="62">
@@ -14516,13 +13971,13 @@
         <v>0.006833178619849951</v>
       </c>
       <c r="BC62" t="n">
-        <v>0.0584563195068746</v>
+        <v>0.04710110261480005</v>
       </c>
       <c r="BD62" t="n">
-        <v>0.0256495978128837</v>
+        <v>0.01124412776407741</v>
       </c>
       <c r="BE62" t="n">
-        <v>0.01534773529097734</v>
+        <v>0.04108422514878213</v>
       </c>
       <c r="BF62" t="n">
         <v>0.04834920852899011</v>
@@ -14552,28 +14007,19 @@
         <v>0.00853205521958591</v>
       </c>
       <c r="BO62" t="n">
-        <v>0.03190713278824844</v>
+        <v>0.03825369441832946</v>
       </c>
       <c r="BP62" t="n">
         <v>0.07110247924745827</v>
       </c>
       <c r="BQ62" t="n">
-        <v>0.001623452148002816</v>
+        <v>0.0792884259729519</v>
       </c>
       <c r="BR62" t="n">
-        <v>0.0792884259729519</v>
+        <v>0.0350464147434689</v>
       </c>
       <c r="BS62" t="n">
-        <v>0.02433158713461832</v>
-      </c>
-      <c r="BT62" t="n">
-        <v>0.0350464147434689</v>
-      </c>
-      <c r="BU62" t="n">
         <v>0.02255047462664326</v>
-      </c>
-      <c r="BV62" t="n">
-        <v>0.01084329317261348</v>
       </c>
     </row>
     <row r="63">
@@ -14742,13 +14188,13 @@
         <v>0.02878991349794311</v>
       </c>
       <c r="BC63" t="n">
-        <v>0.02234949345084096</v>
+        <v>0.06016777820282514</v>
       </c>
       <c r="BD63" t="n">
-        <v>0.04970982803307244</v>
+        <v>0.03745657048396009</v>
       </c>
       <c r="BE63" t="n">
-        <v>0.05189317061503327</v>
+        <v>0.07023106658029714</v>
       </c>
       <c r="BF63" t="n">
         <v>0.1199487960404436</v>
@@ -14778,28 +14224,19 @@
         <v>0.01196973236210993</v>
       </c>
       <c r="BO63" t="n">
-        <v>0.001502870047530247</v>
+        <v>0.01610010812848899</v>
       </c>
       <c r="BP63" t="n">
         <v>0.02687602996996539</v>
       </c>
       <c r="BQ63" t="n">
-        <v>0.01914101102136789</v>
+        <v>0.03357413348068428</v>
       </c>
       <c r="BR63" t="n">
-        <v>0.03357413348068428</v>
+        <v>0.006982787365671662</v>
       </c>
       <c r="BS63" t="n">
-        <v>0.01749859895804972</v>
-      </c>
-      <c r="BT63" t="n">
-        <v>0.006982787365671662</v>
-      </c>
-      <c r="BU63" t="n">
         <v>0.03832981356127243</v>
-      </c>
-      <c r="BV63" t="n">
-        <v>0.02371217280055696</v>
       </c>
     </row>
     <row r="64">
@@ -14968,13 +14405,13 @@
         <v>0.0230734177747047</v>
       </c>
       <c r="BC64" t="n">
-        <v>0.05081981023182033</v>
+        <v>0.0002324926990699722</v>
       </c>
       <c r="BD64" t="n">
-        <v>0.01873764664091314</v>
+        <v>0.001638416855398229</v>
       </c>
       <c r="BE64" t="n">
-        <v>0.02264882147102527</v>
+        <v>0.04050216717263402</v>
       </c>
       <c r="BF64" t="n">
         <v>0.02673335984602455</v>
@@ -15004,28 +14441,19 @@
         <v>0.008483676115894146</v>
       </c>
       <c r="BO64" t="n">
-        <v>0.01149888183427205</v>
+        <v>0.02121198153791334</v>
       </c>
       <c r="BP64" t="n">
         <v>0.02915218366605978</v>
       </c>
       <c r="BQ64" t="n">
-        <v>0.003633062133554476</v>
+        <v>0.07783799150266528</v>
       </c>
       <c r="BR64" t="n">
-        <v>0.07783799150266528</v>
+        <v>0.04814908366263112</v>
       </c>
       <c r="BS64" t="n">
-        <v>0.01681436248512994</v>
-      </c>
-      <c r="BT64" t="n">
-        <v>0.04814908366263112</v>
-      </c>
-      <c r="BU64" t="n">
         <v>0.06116331895701214</v>
-      </c>
-      <c r="BV64" t="n">
-        <v>0.006756064197926499</v>
       </c>
     </row>
     <row r="65">
@@ -15194,13 +14622,13 @@
         <v>0.004716818121165659</v>
       </c>
       <c r="BC65" t="n">
-        <v>0.003628979030401325</v>
+        <v>0.00900200708162785</v>
       </c>
       <c r="BD65" t="n">
-        <v>0.04250258145517564</v>
+        <v>0.02265130955272089</v>
       </c>
       <c r="BE65" t="n">
-        <v>0.01544456200260805</v>
+        <v>0.01704576223961297</v>
       </c>
       <c r="BF65" t="n">
         <v>0.01749396887683751</v>
@@ -15230,28 +14658,19 @@
         <v>0.01118037882065955</v>
       </c>
       <c r="BO65" t="n">
-        <v>0.0272113074299937</v>
+        <v>0.05939207862131494</v>
       </c>
       <c r="BP65" t="n">
         <v>0.0484872960957873</v>
       </c>
       <c r="BQ65" t="n">
-        <v>0.0275006020225235</v>
+        <v>0.09433520904282601</v>
       </c>
       <c r="BR65" t="n">
-        <v>0.09433520904282601</v>
+        <v>0.05370278165269485</v>
       </c>
       <c r="BS65" t="n">
-        <v>0.05527820030438652</v>
-      </c>
-      <c r="BT65" t="n">
-        <v>0.05370278165269485</v>
-      </c>
-      <c r="BU65" t="n">
         <v>0.07775295996195782</v>
-      </c>
-      <c r="BV65" t="n">
-        <v>0.01944447689725193</v>
       </c>
     </row>
     <row r="66">
@@ -15420,13 +14839,13 @@
         <v>0.01211046157020072</v>
       </c>
       <c r="BC66" t="n">
-        <v>0.003188941578910572</v>
+        <v>0.006206450688722867</v>
       </c>
       <c r="BD66" t="n">
-        <v>0.00421118283786714</v>
+        <v>0.002291410638618907</v>
       </c>
       <c r="BE66" t="n">
-        <v>0.02075234867482443</v>
+        <v>0.005532304095882801</v>
       </c>
       <c r="BF66" t="n">
         <v>0.002325861066622525</v>
@@ -15456,28 +14875,19 @@
         <v>1</v>
       </c>
       <c r="BO66" t="n">
-        <v>0.007042196291973188</v>
+        <v>0.01309758357385627</v>
       </c>
       <c r="BP66" t="n">
         <v>0.03269981798904148</v>
       </c>
       <c r="BQ66" t="n">
-        <v>0.0007546355617940834</v>
+        <v>0.01724069429148125</v>
       </c>
       <c r="BR66" t="n">
-        <v>0.01724069429148125</v>
+        <v>0.01121946335380651</v>
       </c>
       <c r="BS66" t="n">
-        <v>0.01072363463633401</v>
-      </c>
-      <c r="BT66" t="n">
-        <v>0.01121946335380651</v>
-      </c>
-      <c r="BU66" t="n">
         <v>0.03511724319757013</v>
-      </c>
-      <c r="BV66" t="n">
-        <v>0.0005335699100380391</v>
       </c>
     </row>
     <row r="67">
@@ -15487,223 +14897,214 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.0007935066234585211</v>
+        <v>0.02694417884472192</v>
       </c>
       <c r="C67" t="n">
-        <v>0.01121206594541877</v>
+        <v>0.02127614701843885</v>
       </c>
       <c r="D67" t="n">
-        <v>0.02274944037626932</v>
+        <v>0.03635509986050962</v>
       </c>
       <c r="E67" t="n">
-        <v>0.01427255302820032</v>
+        <v>0.01250402323052536</v>
       </c>
       <c r="F67" t="n">
-        <v>0.01534177382980756</v>
+        <v>0.01425068283109591</v>
       </c>
       <c r="G67" t="n">
-        <v>0.005058459261082206</v>
+        <v>0.06221795248019357</v>
       </c>
       <c r="H67" t="n">
-        <v>0.01777225766548977</v>
+        <v>0.01501096737916633</v>
       </c>
       <c r="I67" t="n">
-        <v>0.002407313332021356</v>
+        <v>0.04679743753302049</v>
       </c>
       <c r="J67" t="n">
-        <v>0.008038833863448003</v>
+        <v>0.00277508436338251</v>
       </c>
       <c r="K67" t="n">
-        <v>0.01830406490342062</v>
+        <v>0.06297723202221908</v>
       </c>
       <c r="L67" t="n">
-        <v>0.002175358462702495</v>
+        <v>0.04873882991256713</v>
       </c>
       <c r="M67" t="n">
-        <v>0.009573287701781038</v>
+        <v>0.02422269974680242</v>
       </c>
       <c r="N67" t="n">
-        <v>2.247026005137387e-05</v>
+        <v>0.03121226760319746</v>
       </c>
       <c r="O67" t="n">
-        <v>0.02239034555274378</v>
+        <v>0.003748938489814412</v>
       </c>
       <c r="P67" t="n">
-        <v>0.01311819234427029</v>
+        <v>0.01118130201135061</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.00653601887652923</v>
+        <v>0.01180471576112824</v>
       </c>
       <c r="R67" t="n">
-        <v>0.001391955133745369</v>
+        <v>0.03337467752771352</v>
       </c>
       <c r="S67" t="n">
-        <v>0.000781157039560942</v>
+        <v>0.003656743477193577</v>
       </c>
       <c r="T67" t="n">
-        <v>0.001929523594528131</v>
+        <v>0.02482809195538108</v>
       </c>
       <c r="U67" t="n">
-        <v>0.00593318888538361</v>
+        <v>0.007042480901852287</v>
       </c>
       <c r="V67" t="n">
-        <v>0.008737101599949525</v>
+        <v>0.01651089256970986</v>
       </c>
       <c r="W67" t="n">
-        <v>0.0002185357207990259</v>
+        <v>0.007962195588649704</v>
       </c>
       <c r="X67" t="n">
-        <v>0.002290840599028838</v>
+        <v>0.01056570503537146</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.00157027761337508</v>
+        <v>0.004540991002438451</v>
       </c>
       <c r="Z67" t="n">
-        <v>0.01160453494534531</v>
+        <v>0.01254337510719021</v>
       </c>
       <c r="AA67" t="n">
-        <v>0.01020211026354633</v>
+        <v>0.006325649669906301</v>
       </c>
       <c r="AB67" t="n">
-        <v>0.006360798293412957</v>
+        <v>0.01521948316558621</v>
       </c>
       <c r="AC67" t="n">
-        <v>0.01248428595444902</v>
+        <v>0.01896962297504982</v>
       </c>
       <c r="AD67" t="n">
-        <v>0.001387572442156842</v>
+        <v>0.007574515900398239</v>
       </c>
       <c r="AE67" t="n">
-        <v>0.002508458325705782</v>
+        <v>0.01996424195890326</v>
       </c>
       <c r="AF67" t="n">
-        <v>0.0006794754680176185</v>
+        <v>0.01664490141711619</v>
       </c>
       <c r="AG67" t="n">
-        <v>0.00318498344703115</v>
+        <v>0.01260568644039302</v>
       </c>
       <c r="AH67" t="n">
-        <v>0.003957717461475703</v>
+        <v>0.01193934188819723</v>
       </c>
       <c r="AI67" t="n">
-        <v>0.04540401301476382</v>
+        <v>0.0293857398405012</v>
       </c>
       <c r="AJ67" t="n">
-        <v>0.04436650709718781</v>
+        <v>0.03503246895084553</v>
       </c>
       <c r="AK67" t="n">
-        <v>0.02994598461212425</v>
+        <v>0.028527591543077</v>
       </c>
       <c r="AL67" t="n">
-        <v>0.006785545896499225</v>
+        <v>0.01193807119720998</v>
       </c>
       <c r="AM67" t="n">
-        <v>0.02039103032604158</v>
+        <v>0.04282268970890933</v>
       </c>
       <c r="AN67" t="n">
-        <v>0.00718407384230691</v>
+        <v>0.01091605660994283</v>
       </c>
       <c r="AO67" t="n">
-        <v>0.0243259140979273</v>
+        <v>0.02135245725330409</v>
       </c>
       <c r="AP67" t="n">
-        <v>0.03133600446223898</v>
+        <v>0.0302787130707191</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.01236741804872186</v>
+        <v>0.009469634429345055</v>
       </c>
       <c r="AR67" t="n">
-        <v>0.000690638324608419</v>
+        <v>0.01230936754482541</v>
       </c>
       <c r="AS67" t="n">
-        <v>0.004320975488882985</v>
+        <v>0.03067361806396796</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.003704390313452987</v>
+        <v>0.0129139400407663</v>
       </c>
       <c r="AU67" t="n">
-        <v>0.002055300081550456</v>
+        <v>0.02930656194182432</v>
       </c>
       <c r="AV67" t="n">
-        <v>0.006732928270855104</v>
+        <v>0.02246420307735621</v>
       </c>
       <c r="AW67" t="n">
-        <v>0.01225319644428478</v>
+        <v>0.02794291941503756</v>
       </c>
       <c r="AX67" t="n">
-        <v>0.004923759845148611</v>
+        <v>0.009432043541885753</v>
       </c>
       <c r="AY67" t="n">
-        <v>0.00931317272436823</v>
+        <v>0.01700019462011118</v>
       </c>
       <c r="AZ67" t="n">
-        <v>0.002143238987713542</v>
+        <v>0.02203677250253072</v>
       </c>
       <c r="BA67" t="n">
-        <v>0.01186040761797362</v>
+        <v>0.003235579457332337</v>
       </c>
       <c r="BB67" t="n">
-        <v>0.001380780635031111</v>
+        <v>0.02290129974671878</v>
       </c>
       <c r="BC67" t="n">
-        <v>0.001020752166307554</v>
+        <v>0.01189981458166534</v>
       </c>
       <c r="BD67" t="n">
-        <v>0.00310112120764007</v>
+        <v>0.01793009297397137</v>
       </c>
       <c r="BE67" t="n">
-        <v>0.02031894612442886</v>
+        <v>0.03345552102658301</v>
       </c>
       <c r="BF67" t="n">
-        <v>0.006013644996172024</v>
+        <v>0.01397550692755328</v>
       </c>
       <c r="BG67" t="n">
-        <v>0.00455713712843237</v>
+        <v>0.01039809710241942</v>
       </c>
       <c r="BH67" t="n">
-        <v>0.01176038369890601</v>
+        <v>0.03371091366983896</v>
       </c>
       <c r="BI67" t="n">
-        <v>0.01949287201178212</v>
+        <v>0.04101052437930797</v>
       </c>
       <c r="BJ67" t="n">
-        <v>0.03190713278824844</v>
+        <v>0.03825369441832946</v>
       </c>
       <c r="BK67" t="n">
-        <v>0.001502870047530247</v>
+        <v>0.01610010812848899</v>
       </c>
       <c r="BL67" t="n">
-        <v>0.01149888183427205</v>
+        <v>0.02121198153791334</v>
       </c>
       <c r="BM67" t="n">
-        <v>0.0272113074299937</v>
+        <v>0.05939207862131494</v>
       </c>
       <c r="BN67" t="n">
-        <v>0.007042196291973188</v>
+        <v>0.01309758357385627</v>
       </c>
       <c r="BO67" t="n">
         <v>1</v>
       </c>
       <c r="BP67" t="n">
-        <v>0.1152379592968802</v>
+        <v>0.2143278517373764</v>
       </c>
       <c r="BQ67" t="n">
-        <v>0.002659423431137995</v>
+        <v>0.1130024935059993</v>
       </c>
       <c r="BR67" t="n">
-        <v>0.06075821057100346</v>
+        <v>0.07353690711897616</v>
       </c>
       <c r="BS67" t="n">
-        <v>0.03779133486769268</v>
-      </c>
-      <c r="BT67" t="n">
-        <v>0.03953869289829309</v>
-      </c>
-      <c r="BU67" t="n">
-        <v>0.1237572467093367</v>
-      </c>
-      <c r="BV67" t="n">
-        <v>0.001880362379864297</v>
+        <v>0.2301726357008025</v>
       </c>
     </row>
     <row r="68">
@@ -15872,13 +15273,13 @@
         <v>0.05485842354012298</v>
       </c>
       <c r="BC68" t="n">
-        <v>0.03366916569475919</v>
+        <v>0.01409643608458979</v>
       </c>
       <c r="BD68" t="n">
-        <v>0.02047535197295355</v>
+        <v>0.02387067296894107</v>
       </c>
       <c r="BE68" t="n">
-        <v>0.04258895933055443</v>
+        <v>0.01551655533696204</v>
       </c>
       <c r="BF68" t="n">
         <v>0.004705411020855263</v>
@@ -15908,1373 +15309,669 @@
         <v>0.03269981798904148</v>
       </c>
       <c r="BO68" t="n">
-        <v>0.1152379592968802</v>
+        <v>0.2143278517373764</v>
       </c>
       <c r="BP68" t="n">
         <v>1</v>
       </c>
       <c r="BQ68" t="n">
-        <v>0.01234879837887031</v>
+        <v>0.2821253973389298</v>
       </c>
       <c r="BR68" t="n">
-        <v>0.2821253973389298</v>
+        <v>0.1835944366919264</v>
       </c>
       <c r="BS68" t="n">
-        <v>0.1754807336377466</v>
-      </c>
-      <c r="BT68" t="n">
-        <v>0.1835944366919264</v>
-      </c>
-      <c r="BU68" t="n">
         <v>0.5746558707590828</v>
-      </c>
-      <c r="BV68" t="n">
-        <v>0.008731297030883411</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>终端品牌_华硕</t>
+          <t>终端品牌_小米科技</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.005007333321141769</v>
+        <v>0.030937791793738</v>
       </c>
       <c r="C69" t="n">
-        <v>0.004061271093781305</v>
+        <v>0.03769667565306364</v>
       </c>
       <c r="D69" t="n">
-        <v>0.009446513847016415</v>
+        <v>0.02166688208229002</v>
       </c>
       <c r="E69" t="n">
-        <v>0.003485338446822571</v>
+        <v>0.002491531931282356</v>
       </c>
       <c r="F69" t="n">
-        <v>0.006576462185643859</v>
+        <v>0.02857011025986241</v>
       </c>
       <c r="G69" t="n">
-        <v>0.007237009507445794</v>
+        <v>0.02254548876969302</v>
       </c>
       <c r="H69" t="n">
-        <v>0.01761277510841147</v>
+        <v>0.003213647076820958</v>
       </c>
       <c r="I69" t="n">
-        <v>0.00699626648907641</v>
+        <v>0.006288747958448298</v>
       </c>
       <c r="J69" t="n">
-        <v>0.003976289762648569</v>
+        <v>0.01372566188320423</v>
       </c>
       <c r="K69" t="n">
-        <v>0.002039529238333177</v>
+        <v>0.02733991077693727</v>
       </c>
       <c r="L69" t="n">
-        <v>0.0113484303704511</v>
+        <v>0.004517277913997005</v>
       </c>
       <c r="M69" t="n">
-        <v>0.003878780235401664</v>
+        <v>0.0002411140340033412</v>
       </c>
       <c r="N69" t="n">
-        <v>0.01182997981692861</v>
+        <v>0.02922725742107555</v>
       </c>
       <c r="O69" t="n">
-        <v>0.002399329739532751</v>
+        <v>0.01218610779856453</v>
       </c>
       <c r="P69" t="n">
-        <v>0.008218385807770571</v>
+        <v>0.02281265746459963</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.004689952540329267</v>
+        <v>0.001427858731465205</v>
       </c>
       <c r="R69" t="n">
-        <v>0.0100279151990566</v>
+        <v>0.02714442318061444</v>
       </c>
       <c r="S69" t="n">
-        <v>0.006795872838357126</v>
+        <v>0.0254358858679703</v>
       </c>
       <c r="T69" t="n">
-        <v>0.00639095068523973</v>
+        <v>0.01531069188196587</v>
       </c>
       <c r="U69" t="n">
-        <v>0.001657141534377988</v>
+        <v>0.001415472483223179</v>
       </c>
       <c r="V69" t="n">
-        <v>0.004274696223793741</v>
+        <v>0.02812367200213009</v>
       </c>
       <c r="W69" t="n">
-        <v>0.003510585431538764</v>
+        <v>0.02911975972867766</v>
       </c>
       <c r="X69" t="n">
-        <v>0.004573409193151582</v>
+        <v>0.02883706434906223</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.002178589442059953</v>
+        <v>0.009663183140694228</v>
       </c>
       <c r="Z69" t="n">
-        <v>0.002060003889703015</v>
+        <v>0.01530484457469379</v>
       </c>
       <c r="AA69" t="n">
-        <v>0.005277497668991685</v>
+        <v>0.007344132219107537</v>
       </c>
       <c r="AB69" t="n">
-        <v>0.003310713821496485</v>
+        <v>0.009735563735211351</v>
       </c>
       <c r="AC69" t="n">
-        <v>0.001681935034657529</v>
+        <v>0.01318365448121537</v>
       </c>
       <c r="AD69" t="n">
-        <v>0.002188199523632263</v>
+        <v>0.02003794260159598</v>
       </c>
       <c r="AE69" t="n">
-        <v>0.002129931491748838</v>
+        <v>0.006000530214021119</v>
       </c>
       <c r="AF69" t="n">
-        <v>0.00371341167498807</v>
+        <v>0.01001754532533892</v>
       </c>
       <c r="AG69" t="n">
-        <v>0.002442989655020049</v>
+        <v>0.01091402232899592</v>
       </c>
       <c r="AH69" t="n">
-        <v>0.003284176575019554</v>
+        <v>0.006453828592257536</v>
       </c>
       <c r="AI69" t="n">
-        <v>0.00135594622646267</v>
+        <v>0.01155302639708571</v>
       </c>
       <c r="AJ69" t="n">
-        <v>0.001142370177306405</v>
+        <v>0.005394229889489214</v>
       </c>
       <c r="AK69" t="n">
-        <v>0.0008317459855470431</v>
+        <v>0.001737550975206181</v>
       </c>
       <c r="AL69" t="n">
-        <v>0.0007271331311114994</v>
+        <v>0.003125098024367758</v>
       </c>
       <c r="AM69" t="n">
-        <v>0.001730497979339635</v>
+        <v>0.0144404490939933</v>
       </c>
       <c r="AN69" t="n">
-        <v>0.000967868369166652</v>
+        <v>0.01501122948586369</v>
       </c>
       <c r="AO69" t="n">
-        <v>0.0009465263033530942</v>
+        <v>0.0140336737786055</v>
       </c>
       <c r="AP69" t="n">
-        <v>0.0008068545241838785</v>
+        <v>0.009536250339698404</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.001325281642287836</v>
+        <v>0.01396422333346695</v>
       </c>
       <c r="AR69" t="n">
-        <v>0.002300597620828049</v>
+        <v>0.007692153440652037</v>
       </c>
       <c r="AS69" t="n">
-        <v>0.007119313517640904</v>
+        <v>0.02755913905897544</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.003297467969586239</v>
+        <v>0.01486582657737987</v>
       </c>
       <c r="AU69" t="n">
-        <v>0.005506103733092894</v>
+        <v>0.01209509885776721</v>
       </c>
       <c r="AV69" t="n">
-        <v>0.005056638126358326</v>
+        <v>0.001302135083048208</v>
       </c>
       <c r="AW69" t="n">
-        <v>0.004975160597209343</v>
+        <v>0.02604045108329631</v>
       </c>
       <c r="AX69" t="n">
-        <v>0.004038462686109537</v>
+        <v>0.01163520259204906</v>
       </c>
       <c r="AY69" t="n">
-        <v>0.003264152857796898</v>
+        <v>0.02449420229153995</v>
       </c>
       <c r="AZ69" t="n">
-        <v>0.003350183582590064</v>
+        <v>0.005430076846918319</v>
       </c>
       <c r="BA69" t="n">
-        <v>0.001706382287453487</v>
+        <v>0.009301738056527667</v>
       </c>
       <c r="BB69" t="n">
-        <v>0.004573409193151588</v>
-      </c>
-      <c r="BC69" t="inlineStr"/>
+        <v>0.0002586283798122302</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>0.01531949267155089</v>
+      </c>
       <c r="BD69" t="n">
-        <v>0.002203627989516294</v>
-      </c>
-      <c r="BE69" t="inlineStr"/>
+        <v>0.01792550672820482</v>
+      </c>
+      <c r="BE69" t="n">
+        <v>0.0170820165310973</v>
+      </c>
       <c r="BF69" t="n">
-        <v>0.00600042894596732</v>
+        <v>0.01350190118022325</v>
       </c>
       <c r="BG69" t="n">
-        <v>0.002020726576671262</v>
+        <v>0.01958376173019755</v>
       </c>
       <c r="BH69" t="n">
-        <v>0.0176273009440147</v>
+        <v>0.0714651809872822</v>
       </c>
       <c r="BI69" t="n">
-        <v>0.01233851541891691</v>
+        <v>0.08199294155591175</v>
       </c>
       <c r="BJ69" t="n">
-        <v>0.001623452148002816</v>
+        <v>0.0792884259729519</v>
       </c>
       <c r="BK69" t="n">
-        <v>0.01914101102136789</v>
+        <v>0.03357413348068428</v>
       </c>
       <c r="BL69" t="n">
-        <v>0.003633062133554476</v>
+        <v>0.07783799150266528</v>
       </c>
       <c r="BM69" t="n">
-        <v>0.0275006020225235</v>
+        <v>0.09433520904282601</v>
       </c>
       <c r="BN69" t="n">
-        <v>0.0007546355617940834</v>
+        <v>0.01724069429148125</v>
       </c>
       <c r="BO69" t="n">
-        <v>0.002659423431137995</v>
+        <v>0.1130024935059993</v>
       </c>
       <c r="BP69" t="n">
-        <v>0.01234879837887031</v>
+        <v>0.2821253973389298</v>
       </c>
       <c r="BQ69" t="n">
         <v>1</v>
       </c>
       <c r="BR69" t="n">
-        <v>0.006510796414481311</v>
+        <v>0.09679856804349768</v>
       </c>
       <c r="BS69" t="n">
-        <v>0.004049686211010032</v>
-      </c>
-      <c r="BT69" t="n">
-        <v>0.004236931560955812</v>
-      </c>
-      <c r="BU69" t="n">
-        <v>0.01326171772619279</v>
-      </c>
-      <c r="BV69" t="n">
-        <v>0.000201497979049909</v>
+        <v>0.3029823038734514</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>终端品牌_小米科技</t>
+          <t>终端品牌_步步高</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.030937791793738</v>
+        <v>0.01594161256507011</v>
       </c>
       <c r="C70" t="n">
-        <v>0.03769667565306364</v>
+        <v>0.005396370435454332</v>
       </c>
       <c r="D70" t="n">
-        <v>0.02166688208229002</v>
+        <v>0.05125111061441779</v>
       </c>
       <c r="E70" t="n">
-        <v>0.002491531931282356</v>
+        <v>0.009162920615585834</v>
       </c>
       <c r="F70" t="n">
-        <v>0.02857011025986241</v>
+        <v>0.02642563428648592</v>
       </c>
       <c r="G70" t="n">
-        <v>0.02254548876969302</v>
+        <v>0.06438806607816161</v>
       </c>
       <c r="H70" t="n">
-        <v>0.003213647076820958</v>
+        <v>0.04213567601796026</v>
       </c>
       <c r="I70" t="n">
-        <v>0.006288747958448298</v>
+        <v>0.03578401340601298</v>
       </c>
       <c r="J70" t="n">
-        <v>0.01372566188320423</v>
+        <v>0.01658161494459093</v>
       </c>
       <c r="K70" t="n">
-        <v>0.02733991077693727</v>
+        <v>0.04260272766161888</v>
       </c>
       <c r="L70" t="n">
-        <v>0.004517277913997005</v>
+        <v>0.04623434395680901</v>
       </c>
       <c r="M70" t="n">
-        <v>0.0002411140340033412</v>
+        <v>0.02404640433580265</v>
       </c>
       <c r="N70" t="n">
-        <v>0.02922725742107555</v>
+        <v>0.02054924030913475</v>
       </c>
       <c r="O70" t="n">
-        <v>0.01218610779856453</v>
+        <v>0.02495741289089713</v>
       </c>
       <c r="P70" t="n">
-        <v>0.02281265746459963</v>
+        <v>0.001078779478222983</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.001427858731465205</v>
+        <v>0.01448610305389271</v>
       </c>
       <c r="R70" t="n">
-        <v>0.02714442318061444</v>
+        <v>0.03229514290538628</v>
       </c>
       <c r="S70" t="n">
-        <v>0.0254358858679703</v>
+        <v>0.02092465143170291</v>
       </c>
       <c r="T70" t="n">
-        <v>0.01531069188196587</v>
+        <v>0.02395664414030698</v>
       </c>
       <c r="U70" t="n">
-        <v>0.001415472483223179</v>
+        <v>0.006389169800654741</v>
       </c>
       <c r="V70" t="n">
-        <v>0.02812367200213009</v>
+        <v>0.005239790505145785</v>
       </c>
       <c r="W70" t="n">
-        <v>0.02911975972867766</v>
+        <v>0.01587320572869308</v>
       </c>
       <c r="X70" t="n">
-        <v>0.02883706434906223</v>
+        <v>0.006108896234018621</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.009663183140694228</v>
+        <v>0.005633033928398308</v>
       </c>
       <c r="Z70" t="n">
-        <v>0.01530484457469379</v>
+        <v>0.005538114292731515</v>
       </c>
       <c r="AA70" t="n">
-        <v>0.007344132219107537</v>
+        <v>0.006433935749880628</v>
       </c>
       <c r="AB70" t="n">
-        <v>0.009735563735211351</v>
+        <v>0.01467184781417357</v>
       </c>
       <c r="AC70" t="n">
-        <v>0.01318365448121537</v>
+        <v>0.006659203566839045</v>
       </c>
       <c r="AD70" t="n">
-        <v>0.02003794260159598</v>
+        <v>0.00886940081079658</v>
       </c>
       <c r="AE70" t="n">
-        <v>0.006000530214021119</v>
+        <v>0.00737686168898009</v>
       </c>
       <c r="AF70" t="n">
-        <v>0.01001754532533892</v>
+        <v>0.0005750911476681904</v>
       </c>
       <c r="AG70" t="n">
-        <v>0.01091402232899592</v>
+        <v>0.001986298503618116</v>
       </c>
       <c r="AH70" t="n">
-        <v>0.006453828592257536</v>
+        <v>0.003766937814805588</v>
       </c>
       <c r="AI70" t="n">
-        <v>0.01155302639708571</v>
+        <v>0.005039846307190524</v>
       </c>
       <c r="AJ70" t="n">
-        <v>0.005394229889489214</v>
+        <v>0.008027625041338032</v>
       </c>
       <c r="AK70" t="n">
-        <v>0.001737550975206181</v>
+        <v>0.01236589431637071</v>
       </c>
       <c r="AL70" t="n">
-        <v>0.003125098024367758</v>
+        <v>0.003222382608560667</v>
       </c>
       <c r="AM70" t="n">
-        <v>0.0144404490939933</v>
+        <v>0.007885806159594175</v>
       </c>
       <c r="AN70" t="n">
-        <v>0.01501122948586369</v>
+        <v>0.006725610962669397</v>
       </c>
       <c r="AO70" t="n">
-        <v>0.0140336737786055</v>
+        <v>0.003278224511852382</v>
       </c>
       <c r="AP70" t="n">
-        <v>0.009536250339698404</v>
+        <v>0.01199582318173884</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0.01396422333346695</v>
+        <v>0.00423853990665876</v>
       </c>
       <c r="AR70" t="n">
-        <v>0.007692153440652037</v>
+        <v>0.01539843032267839</v>
       </c>
       <c r="AS70" t="n">
-        <v>0.02755913905897544</v>
+        <v>0.01990846476869048</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.01486582657737987</v>
+        <v>0.01375258296390794</v>
       </c>
       <c r="AU70" t="n">
-        <v>0.01209509885776721</v>
+        <v>0.03274456290335772</v>
       </c>
       <c r="AV70" t="n">
-        <v>0.001302135083048208</v>
+        <v>0.03128123812380424</v>
       </c>
       <c r="AW70" t="n">
-        <v>0.02604045108329631</v>
+        <v>0.004993806400291572</v>
       </c>
       <c r="AX70" t="n">
-        <v>0.01163520259204906</v>
+        <v>0.009381470508426918</v>
       </c>
       <c r="AY70" t="n">
-        <v>0.02449420229153995</v>
+        <v>0.02910807491150364</v>
       </c>
       <c r="AZ70" t="n">
-        <v>0.005430076846918319</v>
+        <v>0.007068686851900011</v>
       </c>
       <c r="BA70" t="n">
-        <v>0.009301738056527667</v>
+        <v>0.001250606976815755</v>
       </c>
       <c r="BB70" t="n">
-        <v>0.0002586283798122302</v>
+        <v>0.0225763556474599</v>
       </c>
       <c r="BC70" t="n">
-        <v>0.04767346109007327</v>
+        <v>0.03182412918852555</v>
       </c>
       <c r="BD70" t="n">
-        <v>0.03886608019678472</v>
+        <v>0.01108146779532233</v>
       </c>
       <c r="BE70" t="n">
-        <v>0.0201327854265879</v>
+        <v>0.02670100051501863</v>
       </c>
       <c r="BF70" t="n">
-        <v>0.01350190118022325</v>
+        <v>0.01861541590896975</v>
       </c>
       <c r="BG70" t="n">
-        <v>0.01958376173019755</v>
+        <v>0.04326295203344885</v>
       </c>
       <c r="BH70" t="n">
-        <v>0.0714651809872822</v>
+        <v>0.0571828715623537</v>
       </c>
       <c r="BI70" t="n">
-        <v>0.08199294155591175</v>
+        <v>0.02474556354960487</v>
       </c>
       <c r="BJ70" t="n">
-        <v>0.0792884259729519</v>
+        <v>0.0350464147434689</v>
       </c>
       <c r="BK70" t="n">
-        <v>0.03357413348068428</v>
+        <v>0.006982787365671662</v>
       </c>
       <c r="BL70" t="n">
-        <v>0.07783799150266528</v>
+        <v>0.04814908366263112</v>
       </c>
       <c r="BM70" t="n">
-        <v>0.09433520904282601</v>
+        <v>0.05370278165269485</v>
       </c>
       <c r="BN70" t="n">
-        <v>0.01724069429148125</v>
+        <v>0.01121946335380651</v>
       </c>
       <c r="BO70" t="n">
-        <v>0.06075821057100346</v>
+        <v>0.07353690711897616</v>
       </c>
       <c r="BP70" t="n">
-        <v>0.2821253973389298</v>
+        <v>0.1835944366919264</v>
       </c>
       <c r="BQ70" t="n">
-        <v>0.006510796414481311</v>
+        <v>0.09679856804349768</v>
       </c>
       <c r="BR70" t="n">
         <v>1</v>
       </c>
       <c r="BS70" t="n">
-        <v>0.09252068876062645</v>
-      </c>
-      <c r="BT70" t="n">
-        <v>0.09679856804349768</v>
-      </c>
-      <c r="BU70" t="n">
-        <v>0.3029823038734514</v>
-      </c>
-      <c r="BV70" t="n">
-        <v>0.004603500329207541</v>
+        <v>0.1971671672665552</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>终端品牌_欧珀</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>0.03245092805397139</v>
-      </c>
-      <c r="C71" t="n">
-        <v>0.03400615016342053</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.0576084129449892</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0.0241572286872788</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0.02661456950925397</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0.07070739462072623</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0.02884193181806434</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0.05325545433517502</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.002590359201054012</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.06210508723020145</v>
-      </c>
-      <c r="L71" t="n">
-        <v>0.05818467356806405</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.03637872994126289</v>
-      </c>
-      <c r="N71" t="n">
-        <v>0.03582336697720509</v>
-      </c>
-      <c r="O71" t="n">
-        <v>0.01098154429194383</v>
-      </c>
-      <c r="P71" t="n">
-        <v>0.003493650743823932</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>0.01794810599515837</v>
-      </c>
-      <c r="R71" t="n">
-        <v>0.0395248193985496</v>
-      </c>
-      <c r="S71" t="n">
-        <v>0.004120808108931599</v>
-      </c>
-      <c r="T71" t="n">
-        <v>0.03012846000720727</v>
-      </c>
-      <c r="U71" t="n">
-        <v>0.004171648368298958</v>
-      </c>
-      <c r="V71" t="n">
-        <v>0.01324248835004835</v>
-      </c>
-      <c r="W71" t="n">
-        <v>0.008931505248394664</v>
-      </c>
-      <c r="X71" t="n">
-        <v>0.01463119809223094</v>
-      </c>
-      <c r="Y71" t="n">
-        <v>0.006222711069373155</v>
-      </c>
-      <c r="Z71" t="n">
-        <v>0.007286723563410079</v>
-      </c>
-      <c r="AA71" t="n">
-        <v>2.198808724189948e-05</v>
-      </c>
-      <c r="AB71" t="n">
-        <v>0.02278425061118174</v>
-      </c>
-      <c r="AC71" t="n">
-        <v>0.01429265227950389</v>
-      </c>
-      <c r="AD71" t="n">
-        <v>0.008314102110857645</v>
-      </c>
-      <c r="AE71" t="n">
-        <v>0.02521055302607648</v>
-      </c>
-      <c r="AF71" t="n">
-        <v>0.01984588601073783</v>
-      </c>
-      <c r="AG71" t="n">
-        <v>0.01256400632976446</v>
-      </c>
-      <c r="AH71" t="n">
-        <v>0.01651789143791571</v>
-      </c>
-      <c r="AI71" t="n">
-        <v>0.004337927573044693</v>
-      </c>
-      <c r="AJ71" t="n">
-        <v>0.01173421292179665</v>
-      </c>
-      <c r="AK71" t="n">
-        <v>0.013734092608795</v>
-      </c>
-      <c r="AL71" t="n">
-        <v>0.01888038015507042</v>
-      </c>
-      <c r="AM71" t="n">
-        <v>0.03731416234654131</v>
-      </c>
-      <c r="AN71" t="n">
-        <v>0.008224697011348115</v>
-      </c>
-      <c r="AO71" t="n">
-        <v>0.009020328824139841</v>
-      </c>
-      <c r="AP71" t="n">
-        <v>0.01487237323695827</v>
-      </c>
-      <c r="AQ71" t="n">
-        <v>0.002735593382970612</v>
-      </c>
-      <c r="AR71" t="n">
-        <v>0.0139177603631193</v>
-      </c>
-      <c r="AS71" t="n">
-        <v>0.03276489732389994</v>
-      </c>
-      <c r="AT71" t="n">
-        <v>0.01321933285949997</v>
-      </c>
-      <c r="AU71" t="n">
-        <v>0.03563978012015569</v>
-      </c>
-      <c r="AV71" t="n">
-        <v>0.0215951195946641</v>
-      </c>
-      <c r="AW71" t="n">
-        <v>0.0243804553952919</v>
-      </c>
-      <c r="AX71" t="n">
-        <v>0.00743244502847716</v>
-      </c>
-      <c r="AY71" t="n">
-        <v>0.02616947348137138</v>
-      </c>
-      <c r="AZ71" t="n">
-        <v>0.02803999873991438</v>
-      </c>
-      <c r="BA71" t="n">
-        <v>0.01169589630225939</v>
-      </c>
-      <c r="BB71" t="n">
-        <v>0.02766742546219812</v>
-      </c>
-      <c r="BC71" t="n">
-        <v>8.868217768266374e-05</v>
-      </c>
-      <c r="BD71" t="n">
-        <v>0.05044538309607218</v>
-      </c>
-      <c r="BE71" t="n">
-        <v>0.03271775824982018</v>
-      </c>
-      <c r="BF71" t="n">
-        <v>0.02031111917226761</v>
-      </c>
-      <c r="BG71" t="n">
-        <v>0.01542618971441872</v>
-      </c>
-      <c r="BH71" t="n">
-        <v>0.04912955181564557</v>
-      </c>
-      <c r="BI71" t="n">
-        <v>0.03419707259887714</v>
-      </c>
-      <c r="BJ71" t="n">
-        <v>0.02433158713461832</v>
-      </c>
-      <c r="BK71" t="n">
-        <v>0.01749859895804972</v>
-      </c>
-      <c r="BL71" t="n">
-        <v>0.01681436248512994</v>
-      </c>
-      <c r="BM71" t="n">
-        <v>0.05527820030438652</v>
-      </c>
-      <c r="BN71" t="n">
-        <v>0.01072363463633401</v>
-      </c>
-      <c r="BO71" t="n">
-        <v>0.03779133486769268</v>
-      </c>
-      <c r="BP71" t="n">
-        <v>0.1754807336377466</v>
-      </c>
-      <c r="BQ71" t="n">
-        <v>0.004049686211010032</v>
-      </c>
-      <c r="BR71" t="n">
-        <v>0.09252068876062645</v>
-      </c>
-      <c r="BS71" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT71" t="n">
-        <v>0.06020827580776043</v>
-      </c>
-      <c r="BU71" t="n">
-        <v>0.1884536360939347</v>
-      </c>
-      <c r="BV71" t="n">
-        <v>0.002863356587852564</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>终端品牌_步步高</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>0.01594161256507011</v>
-      </c>
-      <c r="C72" t="n">
-        <v>0.005396370435454332</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.05125111061441779</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0.009162920615585834</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0.02642563428648592</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0.06438806607816161</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0.04213567601796026</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0.03578401340601298</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.01658161494459093</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.04260272766161888</v>
-      </c>
-      <c r="L72" t="n">
-        <v>0.04623434395680901</v>
-      </c>
-      <c r="M72" t="n">
-        <v>0.02404640433580265</v>
-      </c>
-      <c r="N72" t="n">
-        <v>0.02054924030913475</v>
-      </c>
-      <c r="O72" t="n">
-        <v>0.02495741289089713</v>
-      </c>
-      <c r="P72" t="n">
-        <v>0.001078779478222983</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>0.01448610305389271</v>
-      </c>
-      <c r="R72" t="n">
-        <v>0.03229514290538628</v>
-      </c>
-      <c r="S72" t="n">
-        <v>0.02092465143170291</v>
-      </c>
-      <c r="T72" t="n">
-        <v>0.02395664414030698</v>
-      </c>
-      <c r="U72" t="n">
-        <v>0.006389169800654741</v>
-      </c>
-      <c r="V72" t="n">
-        <v>0.005239790505145785</v>
-      </c>
-      <c r="W72" t="n">
-        <v>0.01587320572869308</v>
-      </c>
-      <c r="X72" t="n">
-        <v>0.006108896234018621</v>
-      </c>
-      <c r="Y72" t="n">
-        <v>0.005633033928398308</v>
-      </c>
-      <c r="Z72" t="n">
-        <v>0.005538114292731515</v>
-      </c>
-      <c r="AA72" t="n">
-        <v>0.006433935749880628</v>
-      </c>
-      <c r="AB72" t="n">
-        <v>0.01467184781417357</v>
-      </c>
-      <c r="AC72" t="n">
-        <v>0.006659203566839045</v>
-      </c>
-      <c r="AD72" t="n">
-        <v>0.00886940081079658</v>
-      </c>
-      <c r="AE72" t="n">
-        <v>0.00737686168898009</v>
-      </c>
-      <c r="AF72" t="n">
-        <v>0.0005750911476681904</v>
-      </c>
-      <c r="AG72" t="n">
-        <v>0.001986298503618116</v>
-      </c>
-      <c r="AH72" t="n">
-        <v>0.003766937814805588</v>
-      </c>
-      <c r="AI72" t="n">
-        <v>0.005039846307190524</v>
-      </c>
-      <c r="AJ72" t="n">
-        <v>0.008027625041338032</v>
-      </c>
-      <c r="AK72" t="n">
-        <v>0.01236589431637071</v>
-      </c>
-      <c r="AL72" t="n">
-        <v>0.003222382608560667</v>
-      </c>
-      <c r="AM72" t="n">
-        <v>0.007885806159594175</v>
-      </c>
-      <c r="AN72" t="n">
-        <v>0.006725610962669397</v>
-      </c>
-      <c r="AO72" t="n">
-        <v>0.003278224511852382</v>
-      </c>
-      <c r="AP72" t="n">
-        <v>0.01199582318173884</v>
-      </c>
-      <c r="AQ72" t="n">
-        <v>0.00423853990665876</v>
-      </c>
-      <c r="AR72" t="n">
-        <v>0.01539843032267839</v>
-      </c>
-      <c r="AS72" t="n">
-        <v>0.01990846476869048</v>
-      </c>
-      <c r="AT72" t="n">
-        <v>0.01375258296390794</v>
-      </c>
-      <c r="AU72" t="n">
-        <v>0.03274456290335772</v>
-      </c>
-      <c r="AV72" t="n">
-        <v>0.03128123812380424</v>
-      </c>
-      <c r="AW72" t="n">
-        <v>0.004993806400291572</v>
-      </c>
-      <c r="AX72" t="n">
-        <v>0.009381470508426918</v>
-      </c>
-      <c r="AY72" t="n">
-        <v>0.02910807491150364</v>
-      </c>
-      <c r="AZ72" t="n">
-        <v>0.007068686851900011</v>
-      </c>
-      <c r="BA72" t="n">
-        <v>0.001250606976815755</v>
-      </c>
-      <c r="BB72" t="n">
-        <v>0.0225763556474599</v>
-      </c>
-      <c r="BC72" t="n">
-        <v>0.0438763114716857</v>
-      </c>
-      <c r="BD72" t="n">
-        <v>0.02316233118261624</v>
-      </c>
-      <c r="BE72" t="n">
-        <v>0.02550300916132501</v>
-      </c>
-      <c r="BF72" t="n">
-        <v>0.01861541590896975</v>
-      </c>
-      <c r="BG72" t="n">
-        <v>0.04326295203344885</v>
-      </c>
-      <c r="BH72" t="n">
-        <v>0.0571828715623537</v>
-      </c>
-      <c r="BI72" t="n">
-        <v>0.02474556354960487</v>
-      </c>
-      <c r="BJ72" t="n">
-        <v>0.0350464147434689</v>
-      </c>
-      <c r="BK72" t="n">
-        <v>0.006982787365671662</v>
-      </c>
-      <c r="BL72" t="n">
-        <v>0.04814908366263112</v>
-      </c>
-      <c r="BM72" t="n">
-        <v>0.05370278165269485</v>
-      </c>
-      <c r="BN72" t="n">
-        <v>0.01121946335380651</v>
-      </c>
-      <c r="BO72" t="n">
-        <v>0.03953869289829309</v>
-      </c>
-      <c r="BP72" t="n">
-        <v>0.1835944366919264</v>
-      </c>
-      <c r="BQ72" t="n">
-        <v>0.004236931560955812</v>
-      </c>
-      <c r="BR72" t="n">
-        <v>0.09679856804349768</v>
-      </c>
-      <c r="BS72" t="n">
-        <v>0.06020827580776043</v>
-      </c>
-      <c r="BT72" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU72" t="n">
-        <v>0.1971671672665552</v>
-      </c>
-      <c r="BV72" t="n">
-        <v>0.002995749612490958</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
           <t>终端品牌_苹果</t>
         </is>
       </c>
-      <c r="B73" t="n">
+      <c r="B71" t="n">
         <v>0.183011911085109</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C71" t="n">
         <v>0.125354404853577</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D71" t="n">
         <v>0.1645716399254414</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E71" t="n">
         <v>0.05549321249994619</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F71" t="n">
         <v>0.1049000854721346</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G71" t="n">
         <v>0.1577915924326438</v>
       </c>
-      <c r="H73" t="n">
+      <c r="H71" t="n">
         <v>0.02327810663603428</v>
       </c>
-      <c r="I73" t="n">
+      <c r="I71" t="n">
         <v>0.09808807345032977</v>
       </c>
-      <c r="J73" t="n">
+      <c r="J71" t="n">
         <v>0.01290258331948692</v>
       </c>
-      <c r="K73" t="n">
+      <c r="K71" t="n">
         <v>0.1932682278971173</v>
       </c>
-      <c r="L73" t="n">
+      <c r="L71" t="n">
         <v>0.1767959020004744</v>
       </c>
-      <c r="M73" t="n">
+      <c r="M71" t="n">
         <v>0.09775906225512969</v>
       </c>
-      <c r="N73" t="n">
+      <c r="N71" t="n">
         <v>0.1021301219368411</v>
       </c>
-      <c r="O73" t="n">
+      <c r="O71" t="n">
         <v>0.02324967940961941</v>
       </c>
-      <c r="P73" t="n">
+      <c r="P71" t="n">
         <v>0.06833701467111991</v>
       </c>
-      <c r="Q73" t="n">
+      <c r="Q71" t="n">
         <v>0.07963679167250763</v>
       </c>
-      <c r="R73" t="n">
+      <c r="R71" t="n">
         <v>0.1136968033186054</v>
       </c>
-      <c r="S73" t="n">
+      <c r="S71" t="n">
         <v>0.05619709750575893</v>
       </c>
-      <c r="T73" t="n">
+      <c r="T71" t="n">
         <v>0.096680166839168</v>
       </c>
-      <c r="U73" t="n">
+      <c r="U71" t="n">
         <v>0.01638052695209808</v>
       </c>
-      <c r="V73" t="n">
+      <c r="V71" t="n">
         <v>0.07217893593510771</v>
       </c>
-      <c r="W73" t="n">
+      <c r="W71" t="n">
         <v>0.07641844911653536</v>
       </c>
-      <c r="X73" t="n">
+      <c r="X71" t="n">
         <v>0.04394138918906285</v>
       </c>
-      <c r="Y73" t="n">
+      <c r="Y71" t="n">
         <v>0.0464630062805891</v>
       </c>
-      <c r="Z73" t="n">
+      <c r="Z71" t="n">
         <v>0.009005887342624763</v>
       </c>
-      <c r="AA73" t="n">
+      <c r="AA71" t="n">
         <v>0.03756733941088222</v>
       </c>
-      <c r="AB73" t="n">
+      <c r="AB71" t="n">
         <v>0.02984691399419819</v>
       </c>
-      <c r="AC73" t="n">
+      <c r="AC71" t="n">
         <v>0.003959393061202442</v>
       </c>
-      <c r="AD73" t="n">
+      <c r="AD71" t="n">
         <v>0.01088395396327835</v>
       </c>
-      <c r="AE73" t="n">
+      <c r="AE71" t="n">
         <v>0.004772718054871352</v>
       </c>
-      <c r="AF73" t="n">
+      <c r="AF71" t="n">
         <v>0.06338547618933214</v>
       </c>
-      <c r="AG73" t="n">
+      <c r="AG71" t="n">
         <v>0.05181407223851221</v>
       </c>
-      <c r="AH73" t="n">
+      <c r="AH71" t="n">
         <v>0.06461436313491022</v>
       </c>
-      <c r="AI73" t="n">
+      <c r="AI71" t="n">
         <v>0.01406135692732767</v>
       </c>
-      <c r="AJ73" t="n">
+      <c r="AJ71" t="n">
         <v>0.01213675318226858</v>
       </c>
-      <c r="AK73" t="n">
+      <c r="AK71" t="n">
         <v>0.01498914777767022</v>
       </c>
-      <c r="AL73" t="n">
+      <c r="AL71" t="n">
         <v>0.01390630296152135</v>
       </c>
-      <c r="AM73" t="n">
+      <c r="AM71" t="n">
         <v>0.003299543159643256</v>
       </c>
-      <c r="AN73" t="n">
+      <c r="AN71" t="n">
         <v>0.01653670925605356</v>
       </c>
-      <c r="AO73" t="n">
+      <c r="AO71" t="n">
         <v>0.02415564657325064</v>
       </c>
-      <c r="AP73" t="n">
+      <c r="AP71" t="n">
         <v>0.0239453205954734</v>
       </c>
-      <c r="AQ73" t="n">
+      <c r="AQ71" t="n">
         <v>0.02100933767529662</v>
       </c>
-      <c r="AR73" t="n">
+      <c r="AR71" t="n">
         <v>0.04635883235390108</v>
       </c>
-      <c r="AS73" t="n">
+      <c r="AS71" t="n">
         <v>0.08884316088359544</v>
       </c>
-      <c r="AT73" t="n">
+      <c r="AT71" t="n">
         <v>0.0273377904110743</v>
       </c>
-      <c r="AU73" t="n">
+      <c r="AU71" t="n">
         <v>0.09688672340747058</v>
       </c>
-      <c r="AV73" t="n">
+      <c r="AV71" t="n">
         <v>0.04738855948314601</v>
       </c>
-      <c r="AW73" t="n">
+      <c r="AW71" t="n">
         <v>0.05937930650499556</v>
       </c>
-      <c r="AX73" t="n">
+      <c r="AX71" t="n">
         <v>0.009049325694552543</v>
       </c>
-      <c r="AY73" t="n">
+      <c r="AY71" t="n">
         <v>0.09038182063319358</v>
       </c>
-      <c r="AZ73" t="n">
+      <c r="AZ71" t="n">
         <v>0.003857875785433042</v>
       </c>
-      <c r="BA73" t="n">
+      <c r="BA71" t="n">
         <v>0.01786325331891046</v>
       </c>
-      <c r="BB73" t="n">
+      <c r="BB71" t="n">
         <v>0.07879659281699733</v>
       </c>
-      <c r="BC73" t="n">
-        <v>0.04068993249896095</v>
-      </c>
-      <c r="BD73" t="n">
-        <v>0.0774793931397402</v>
-      </c>
-      <c r="BE73" t="n">
-        <v>0.02096283806501375</v>
-      </c>
-      <c r="BF73" t="n">
+      <c r="BC71" t="n">
+        <v>0.01498740193771978</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>0.004108340232959557</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>0.05909520697491774</v>
+      </c>
+      <c r="BF71" t="n">
         <v>0.002649781746116142</v>
       </c>
-      <c r="BG73" t="n">
+      <c r="BG71" t="n">
         <v>0.003664876449728243</v>
       </c>
-      <c r="BH73" t="n">
+      <c r="BH71" t="n">
         <v>0.1330529401716488</v>
       </c>
-      <c r="BI73" t="n">
+      <c r="BI71" t="n">
         <v>0.1585771814492019</v>
       </c>
-      <c r="BJ73" t="n">
+      <c r="BJ71" t="n">
         <v>0.02255047462664326</v>
       </c>
-      <c r="BK73" t="n">
+      <c r="BK71" t="n">
         <v>0.03832981356127243</v>
       </c>
-      <c r="BL73" t="n">
+      <c r="BL71" t="n">
         <v>0.06116331895701214</v>
       </c>
-      <c r="BM73" t="n">
+      <c r="BM71" t="n">
         <v>0.07775295996195782</v>
       </c>
-      <c r="BN73" t="n">
+      <c r="BN71" t="n">
         <v>0.03511724319757013</v>
       </c>
-      <c r="BO73" t="n">
-        <v>0.1237572467093367</v>
-      </c>
-      <c r="BP73" t="n">
+      <c r="BO71" t="n">
+        <v>0.2301726357008025</v>
+      </c>
+      <c r="BP71" t="n">
         <v>0.5746558707590828</v>
       </c>
-      <c r="BQ73" t="n">
-        <v>0.01326171772619279</v>
-      </c>
-      <c r="BR73" t="n">
+      <c r="BQ71" t="n">
         <v>0.3029823038734514</v>
       </c>
-      <c r="BS73" t="n">
-        <v>0.1884536360939347</v>
-      </c>
-      <c r="BT73" t="n">
+      <c r="BR71" t="n">
         <v>0.1971671672665552</v>
       </c>
-      <c r="BU73" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV73" t="n">
-        <v>0.009376782505838746</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>终端品牌_金立</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>0.009705622319823252</v>
-      </c>
-      <c r="C74" t="n">
-        <v>0.01514820136446366</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.006679218153385943</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0.002464330884569001</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0.004649929733526204</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0.007869706140813105</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0.004796506747966965</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0.004946755056578247</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.002811461158678472</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.01058083181045089</v>
-      </c>
-      <c r="L74" t="n">
-        <v>0.008023980419686098</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.01498963174462493</v>
-      </c>
-      <c r="N74" t="n">
-        <v>0.008364463041820971</v>
-      </c>
-      <c r="O74" t="n">
-        <v>0.001696461468407993</v>
-      </c>
-      <c r="P74" t="n">
-        <v>0.005810862352795658</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>0.003316060999135622</v>
-      </c>
-      <c r="R74" t="n">
-        <v>0.007090301705248454</v>
-      </c>
-      <c r="S74" t="n">
-        <v>0.004805065441617244</v>
-      </c>
-      <c r="T74" t="n">
-        <v>0.004518762638317588</v>
-      </c>
-      <c r="U74" t="n">
-        <v>0.001171692541650498</v>
-      </c>
-      <c r="V74" t="n">
-        <v>0.003022451359364834</v>
-      </c>
-      <c r="W74" t="n">
-        <v>0.002482181926907536</v>
-      </c>
-      <c r="X74" t="n">
-        <v>0.003233658278647217</v>
-      </c>
-      <c r="Y74" t="n">
-        <v>0.001540385626468716</v>
-      </c>
-      <c r="Z74" t="n">
-        <v>0.001456538951720876</v>
-      </c>
-      <c r="AA74" t="n">
-        <v>0.003731488547631195</v>
-      </c>
-      <c r="AB74" t="n">
-        <v>0.002340861424152702</v>
-      </c>
-      <c r="AC74" t="n">
-        <v>0.00118922294491195</v>
-      </c>
-      <c r="AD74" t="n">
-        <v>0.001547180496230493</v>
-      </c>
-      <c r="AE74" t="n">
-        <v>0.001505981710877442</v>
-      </c>
-      <c r="AF74" t="n">
-        <v>0.002625591522147536</v>
-      </c>
-      <c r="AG74" t="n">
-        <v>0.001727331491447251</v>
-      </c>
-      <c r="AH74" t="n">
-        <v>0.002322098093967612</v>
-      </c>
-      <c r="AI74" t="n">
-        <v>0.0009587304689830188</v>
-      </c>
-      <c r="AJ74" t="n">
-        <v>0.0008077201547279322</v>
-      </c>
-      <c r="AK74" t="n">
-        <v>0.0005880913293136506</v>
-      </c>
-      <c r="AL74" t="n">
-        <v>0.0005141241401749726</v>
-      </c>
-      <c r="AM74" t="n">
-        <v>0.001223559686164391</v>
-      </c>
-      <c r="AN74" t="n">
-        <v>0.0006843375329903025</v>
-      </c>
-      <c r="AO74" t="n">
-        <v>0.0006692474885864938</v>
-      </c>
-      <c r="AP74" t="n">
-        <v>0.00057049166204024</v>
-      </c>
-      <c r="AQ74" t="n">
-        <v>0.0009370488782286397</v>
-      </c>
-      <c r="AR74" t="n">
-        <v>0.001626652291154421</v>
-      </c>
-      <c r="AS74" t="n">
-        <v>0.005033756246669949</v>
-      </c>
-      <c r="AT74" t="n">
-        <v>0.002331495859673704</v>
-      </c>
-      <c r="AU74" t="n">
-        <v>0.003893125930272745</v>
-      </c>
-      <c r="AV74" t="n">
-        <v>0.003575328392636961</v>
-      </c>
-      <c r="AW74" t="n">
-        <v>0.003517719183504559</v>
-      </c>
-      <c r="AX74" t="n">
-        <v>0.002855420922645866</v>
-      </c>
-      <c r="AY74" t="n">
-        <v>0.002307940196383619</v>
-      </c>
-      <c r="AZ74" t="n">
-        <v>0.002368768771675334</v>
-      </c>
-      <c r="BA74" t="n">
-        <v>0.001206508531671213</v>
-      </c>
-      <c r="BB74" t="n">
-        <v>0.00323365827864722</v>
-      </c>
-      <c r="BC74" t="inlineStr"/>
-      <c r="BD74" t="inlineStr"/>
-      <c r="BE74" t="inlineStr"/>
-      <c r="BF74" t="n">
-        <v>0.001098478496558131</v>
-      </c>
-      <c r="BG74" t="n">
-        <v>0.002267443185536082</v>
-      </c>
-      <c r="BH74" t="n">
-        <v>0.004793652344915101</v>
-      </c>
-      <c r="BI74" t="n">
-        <v>0.008724026398150156</v>
-      </c>
-      <c r="BJ74" t="n">
-        <v>0.01084329317261348</v>
-      </c>
-      <c r="BK74" t="n">
-        <v>0.02371217280055696</v>
-      </c>
-      <c r="BL74" t="n">
-        <v>0.006756064197926499</v>
-      </c>
-      <c r="BM74" t="n">
-        <v>0.01944447689725193</v>
-      </c>
-      <c r="BN74" t="n">
-        <v>0.0005335699100380391</v>
-      </c>
-      <c r="BO74" t="n">
-        <v>0.001880362379864297</v>
-      </c>
-      <c r="BP74" t="n">
-        <v>0.008731297030883411</v>
-      </c>
-      <c r="BQ74" t="n">
-        <v>0.000201497979049909</v>
-      </c>
-      <c r="BR74" t="n">
-        <v>0.004603500329207541</v>
-      </c>
-      <c r="BS74" t="n">
-        <v>0.002863356587852564</v>
-      </c>
-      <c r="BT74" t="n">
-        <v>0.002995749612490958</v>
-      </c>
-      <c r="BU74" t="n">
-        <v>0.009376782505838746</v>
-      </c>
-      <c r="BV74" t="n">
+      <c r="BS71" t="n">
         <v>1</v>
       </c>
     </row>
